--- a/FastTest PlugIn - Formula.xlsx
+++ b/FastTest PlugIn - Formula.xlsx
@@ -9,166 +9,185 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10920" tabRatio="805" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10920" tabRatio="805"/>
   </bookViews>
   <sheets>
-    <sheet name="Formulas OM" sheetId="1" r:id="rId1"/>
-    <sheet name="Formulas O2" sheetId="2" r:id="rId2"/>
-    <sheet name="Formulas VF" sheetId="7" r:id="rId3"/>
-    <sheet name="Formulas EM" sheetId="8" r:id="rId4"/>
-    <sheet name="Formulas RC" sheetId="3" r:id="rId5"/>
-    <sheet name="Formulas PP" sheetId="4" r:id="rId6"/>
-    <sheet name="Formulas EN" sheetId="5" r:id="rId7"/>
-    <sheet name="Formulas CL" sheetId="6" r:id="rId8"/>
+    <sheet name="Formulas DG" sheetId="9" r:id="rId1"/>
+    <sheet name="Formulas OM" sheetId="1" r:id="rId2"/>
+    <sheet name="Formulas O2" sheetId="2" r:id="rId3"/>
+    <sheet name="Formulas VF" sheetId="7" r:id="rId4"/>
+    <sheet name="Formulas EM" sheetId="8" r:id="rId5"/>
+    <sheet name="Formulas RC" sheetId="3" r:id="rId6"/>
+    <sheet name="Formulas PP" sheetId="4" r:id="rId7"/>
+    <sheet name="Formulas EN" sheetId="5" r:id="rId8"/>
+    <sheet name="Formulas CL" sheetId="6" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Dato_01" localSheetId="7">'Formulas CL'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="3">'Formulas EM'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="6">'Formulas EN'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="1">'Formulas O2'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="0">'Formulas OM'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="5">'Formulas PP'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="4">'Formulas RC'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="2">'Formulas VF'!$Y$5</definedName>
-    <definedName name="Dato_02" localSheetId="7">'Formulas CL'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="3">'Formulas EM'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="6">'Formulas EN'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="1">'Formulas O2'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="0">'Formulas OM'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="5">'Formulas PP'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="4">'Formulas RC'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="2">'Formulas VF'!$Y$7</definedName>
-    <definedName name="Dato_03" localSheetId="7">'Formulas CL'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="3">'Formulas EM'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="6">'Formulas EN'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="1">'Formulas O2'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="0">'Formulas OM'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="5">'Formulas PP'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="4">'Formulas RC'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="2">'Formulas VF'!$Y$9</definedName>
-    <definedName name="Dato_04" localSheetId="7">'Formulas CL'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="3">'Formulas EM'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="6">'Formulas EN'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="1">'Formulas O2'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="0">'Formulas OM'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="5">'Formulas PP'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="4">'Formulas RC'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="2">'Formulas VF'!$Y$11</definedName>
-    <definedName name="Dato_05" localSheetId="7">'Formulas CL'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="3">'Formulas EM'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="6">'Formulas EN'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="1">'Formulas O2'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="0">'Formulas OM'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="5">'Formulas PP'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="4">'Formulas RC'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="2">'Formulas VF'!$Y$13</definedName>
-    <definedName name="Dato_06" localSheetId="7">'Formulas CL'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="3">'Formulas EM'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="6">'Formulas EN'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="1">'Formulas O2'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="0">'Formulas OM'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="5">'Formulas PP'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="4">'Formulas RC'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="2">'Formulas VF'!$Y$15</definedName>
-    <definedName name="Dato_10" localSheetId="7">'Formulas CL'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="3">'Formulas EM'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="6">'Formulas EN'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="1">'Formulas O2'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="0">'Formulas OM'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="5">'Formulas PP'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="4">'Formulas RC'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="2">'Formulas VF'!$Y$23</definedName>
-    <definedName name="Dato_11" localSheetId="7">'Formulas CL'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="3">'Formulas EM'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="6">'Formulas EN'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="1">'Formulas O2'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="0">'Formulas OM'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="5">'Formulas PP'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="4">'Formulas RC'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="2">'Formulas VF'!$Y$25</definedName>
-    <definedName name="Dato_12" localSheetId="7">'Formulas CL'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="3">'Formulas EM'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="6">'Formulas EN'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="1">'Formulas O2'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="0">'Formulas OM'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="5">'Formulas PP'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="4">'Formulas RC'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="2">'Formulas VF'!$Y$27</definedName>
-    <definedName name="Dato_17" localSheetId="7">'Formulas CL'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="3">'Formulas EM'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="6">'Formulas EN'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="1">'Formulas O2'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="0">'Formulas OM'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="5">'Formulas PP'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="4">'Formulas RC'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="2">'Formulas VF'!$AA$5</definedName>
-    <definedName name="Dato_18" localSheetId="7">'Formulas CL'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="3">'Formulas EM'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="6">'Formulas EN'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="1">'Formulas O2'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="0">'Formulas OM'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="5">'Formulas PP'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="4">'Formulas RC'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="2">'Formulas VF'!$AA$7</definedName>
-    <definedName name="Dato_19" localSheetId="7">'Formulas CL'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="3">'Formulas EM'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="6">'Formulas EN'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="1">'Formulas O2'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="0">'Formulas OM'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="5">'Formulas PP'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="4">'Formulas RC'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="2">'Formulas VF'!$AA$9</definedName>
-    <definedName name="Dato_20" localSheetId="7">'Formulas CL'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="3">'Formulas EM'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="6">'Formulas EN'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="1">'Formulas O2'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="0">'Formulas OM'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="5">'Formulas PP'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="4">'Formulas RC'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="2">'Formulas VF'!$AA$11</definedName>
-    <definedName name="Dato_21" localSheetId="7">'Formulas CL'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="3">'Formulas EM'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="6">'Formulas EN'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="1">'Formulas O2'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="0">'Formulas OM'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="5">'Formulas PP'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="4">'Formulas RC'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="2">'Formulas VF'!$AA$13</definedName>
-    <definedName name="Dato_22" localSheetId="7">'Formulas CL'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="3">'Formulas EM'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="6">'Formulas EN'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="1">'Formulas O2'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="0">'Formulas OM'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="5">'Formulas PP'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="4">'Formulas RC'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="2">'Formulas VF'!$AA$15</definedName>
-    <definedName name="Dato_23" localSheetId="7">'Formulas CL'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="3">'Formulas EM'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="6">'Formulas EN'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="1">'Formulas O2'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="0">'Formulas OM'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="5">'Formulas PP'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="4">'Formulas RC'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="2">'Formulas VF'!$AA$17</definedName>
-    <definedName name="Dato_24" localSheetId="7">'Formulas CL'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="3">'Formulas EM'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="6">'Formulas EN'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="1">'Formulas O2'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="0">'Formulas OM'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="5">'Formulas PP'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="4">'Formulas RC'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="2">'Formulas VF'!$AA$19</definedName>
-    <definedName name="Dato_25" localSheetId="7">'Formulas CL'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="3">'Formulas EM'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="6">'Formulas EN'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="1">'Formulas O2'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="0">'Formulas OM'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="5">'Formulas PP'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="4">'Formulas RC'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="2">'Formulas VF'!$AA$21</definedName>
+    <definedName name="Dato_01" localSheetId="8">'Formulas CL'!$Y$5</definedName>
+    <definedName name="Dato_01" localSheetId="0">'Formulas DG'!$Y$5</definedName>
+    <definedName name="Dato_01" localSheetId="4">'Formulas EM'!$Y$5</definedName>
+    <definedName name="Dato_01" localSheetId="7">'Formulas EN'!$Y$5</definedName>
+    <definedName name="Dato_01" localSheetId="2">'Formulas O2'!$Y$5</definedName>
+    <definedName name="Dato_01" localSheetId="1">'Formulas OM'!$Y$5</definedName>
+    <definedName name="Dato_01" localSheetId="6">'Formulas PP'!$Y$5</definedName>
+    <definedName name="Dato_01" localSheetId="5">'Formulas RC'!$Y$5</definedName>
+    <definedName name="Dato_01" localSheetId="3">'Formulas VF'!$Y$5</definedName>
+    <definedName name="Dato_02" localSheetId="8">'Formulas CL'!$Y$7</definedName>
+    <definedName name="Dato_02" localSheetId="0">'Formulas DG'!$Y$7</definedName>
+    <definedName name="Dato_02" localSheetId="4">'Formulas EM'!$Y$7</definedName>
+    <definedName name="Dato_02" localSheetId="7">'Formulas EN'!$Y$7</definedName>
+    <definedName name="Dato_02" localSheetId="2">'Formulas O2'!$Y$7</definedName>
+    <definedName name="Dato_02" localSheetId="1">'Formulas OM'!$Y$7</definedName>
+    <definedName name="Dato_02" localSheetId="6">'Formulas PP'!$Y$7</definedName>
+    <definedName name="Dato_02" localSheetId="5">'Formulas RC'!$Y$7</definedName>
+    <definedName name="Dato_02" localSheetId="3">'Formulas VF'!$Y$7</definedName>
+    <definedName name="Dato_03" localSheetId="8">'Formulas CL'!$Y$9</definedName>
+    <definedName name="Dato_03" localSheetId="0">'Formulas DG'!$Y$9</definedName>
+    <definedName name="Dato_03" localSheetId="4">'Formulas EM'!$Y$9</definedName>
+    <definedName name="Dato_03" localSheetId="7">'Formulas EN'!$Y$9</definedName>
+    <definedName name="Dato_03" localSheetId="2">'Formulas O2'!$Y$9</definedName>
+    <definedName name="Dato_03" localSheetId="1">'Formulas OM'!$Y$9</definedName>
+    <definedName name="Dato_03" localSheetId="6">'Formulas PP'!$Y$9</definedName>
+    <definedName name="Dato_03" localSheetId="5">'Formulas RC'!$Y$9</definedName>
+    <definedName name="Dato_03" localSheetId="3">'Formulas VF'!$Y$9</definedName>
+    <definedName name="Dato_04" localSheetId="8">'Formulas CL'!$Y$11</definedName>
+    <definedName name="Dato_04" localSheetId="0">'Formulas DG'!$Y$11</definedName>
+    <definedName name="Dato_04" localSheetId="4">'Formulas EM'!$Y$11</definedName>
+    <definedName name="Dato_04" localSheetId="7">'Formulas EN'!$Y$11</definedName>
+    <definedName name="Dato_04" localSheetId="2">'Formulas O2'!$Y$11</definedName>
+    <definedName name="Dato_04" localSheetId="1">'Formulas OM'!$Y$11</definedName>
+    <definedName name="Dato_04" localSheetId="6">'Formulas PP'!$Y$11</definedName>
+    <definedName name="Dato_04" localSheetId="5">'Formulas RC'!$Y$11</definedName>
+    <definedName name="Dato_04" localSheetId="3">'Formulas VF'!$Y$11</definedName>
+    <definedName name="Dato_05" localSheetId="8">'Formulas CL'!$Y$13</definedName>
+    <definedName name="Dato_05" localSheetId="0">'Formulas DG'!$Y$13</definedName>
+    <definedName name="Dato_05" localSheetId="4">'Formulas EM'!$Y$13</definedName>
+    <definedName name="Dato_05" localSheetId="7">'Formulas EN'!$Y$13</definedName>
+    <definedName name="Dato_05" localSheetId="2">'Formulas O2'!$Y$13</definedName>
+    <definedName name="Dato_05" localSheetId="1">'Formulas OM'!$Y$13</definedName>
+    <definedName name="Dato_05" localSheetId="6">'Formulas PP'!$Y$13</definedName>
+    <definedName name="Dato_05" localSheetId="5">'Formulas RC'!$Y$13</definedName>
+    <definedName name="Dato_05" localSheetId="3">'Formulas VF'!$Y$13</definedName>
+    <definedName name="Dato_06" localSheetId="8">'Formulas CL'!$Y$15</definedName>
+    <definedName name="Dato_06" localSheetId="0">'Formulas DG'!$Y$15</definedName>
+    <definedName name="Dato_06" localSheetId="4">'Formulas EM'!$Y$15</definedName>
+    <definedName name="Dato_06" localSheetId="7">'Formulas EN'!$Y$15</definedName>
+    <definedName name="Dato_06" localSheetId="2">'Formulas O2'!$Y$15</definedName>
+    <definedName name="Dato_06" localSheetId="1">'Formulas OM'!$Y$15</definedName>
+    <definedName name="Dato_06" localSheetId="6">'Formulas PP'!$Y$15</definedName>
+    <definedName name="Dato_06" localSheetId="5">'Formulas RC'!$Y$15</definedName>
+    <definedName name="Dato_06" localSheetId="3">'Formulas VF'!$Y$15</definedName>
+    <definedName name="Dato_10" localSheetId="8">'Formulas CL'!$Y$23</definedName>
+    <definedName name="Dato_10" localSheetId="0">'Formulas DG'!$Y$23</definedName>
+    <definedName name="Dato_10" localSheetId="4">'Formulas EM'!$Y$23</definedName>
+    <definedName name="Dato_10" localSheetId="7">'Formulas EN'!$Y$23</definedName>
+    <definedName name="Dato_10" localSheetId="2">'Formulas O2'!$Y$23</definedName>
+    <definedName name="Dato_10" localSheetId="1">'Formulas OM'!$Y$23</definedName>
+    <definedName name="Dato_10" localSheetId="6">'Formulas PP'!$Y$23</definedName>
+    <definedName name="Dato_10" localSheetId="5">'Formulas RC'!$Y$23</definedName>
+    <definedName name="Dato_10" localSheetId="3">'Formulas VF'!$Y$23</definedName>
+    <definedName name="Dato_11" localSheetId="8">'Formulas CL'!$Y$25</definedName>
+    <definedName name="Dato_11" localSheetId="0">'Formulas DG'!$Y$25</definedName>
+    <definedName name="Dato_11" localSheetId="4">'Formulas EM'!$Y$25</definedName>
+    <definedName name="Dato_11" localSheetId="7">'Formulas EN'!$Y$25</definedName>
+    <definedName name="Dato_11" localSheetId="2">'Formulas O2'!$Y$25</definedName>
+    <definedName name="Dato_11" localSheetId="1">'Formulas OM'!$Y$25</definedName>
+    <definedName name="Dato_11" localSheetId="6">'Formulas PP'!$Y$25</definedName>
+    <definedName name="Dato_11" localSheetId="5">'Formulas RC'!$Y$25</definedName>
+    <definedName name="Dato_11" localSheetId="3">'Formulas VF'!$Y$25</definedName>
+    <definedName name="Dato_12" localSheetId="8">'Formulas CL'!$Y$27</definedName>
+    <definedName name="Dato_12" localSheetId="0">'Formulas DG'!$Y$27</definedName>
+    <definedName name="Dato_12" localSheetId="4">'Formulas EM'!$Y$27</definedName>
+    <definedName name="Dato_12" localSheetId="7">'Formulas EN'!$Y$27</definedName>
+    <definedName name="Dato_12" localSheetId="2">'Formulas O2'!$Y$27</definedName>
+    <definedName name="Dato_12" localSheetId="1">'Formulas OM'!$Y$27</definedName>
+    <definedName name="Dato_12" localSheetId="6">'Formulas PP'!$Y$27</definedName>
+    <definedName name="Dato_12" localSheetId="5">'Formulas RC'!$Y$27</definedName>
+    <definedName name="Dato_12" localSheetId="3">'Formulas VF'!$Y$27</definedName>
+    <definedName name="Dato_17" localSheetId="8">'Formulas CL'!$AA$5</definedName>
+    <definedName name="Dato_17" localSheetId="0">'Formulas DG'!$AA$5</definedName>
+    <definedName name="Dato_17" localSheetId="4">'Formulas EM'!$AA$5</definedName>
+    <definedName name="Dato_17" localSheetId="7">'Formulas EN'!$AA$5</definedName>
+    <definedName name="Dato_17" localSheetId="2">'Formulas O2'!$AA$5</definedName>
+    <definedName name="Dato_17" localSheetId="1">'Formulas OM'!$AA$5</definedName>
+    <definedName name="Dato_17" localSheetId="6">'Formulas PP'!$AA$5</definedName>
+    <definedName name="Dato_17" localSheetId="5">'Formulas RC'!$AA$5</definedName>
+    <definedName name="Dato_17" localSheetId="3">'Formulas VF'!$AA$5</definedName>
+    <definedName name="Dato_18" localSheetId="8">'Formulas CL'!$AA$7</definedName>
+    <definedName name="Dato_18" localSheetId="0">'Formulas DG'!$AA$7</definedName>
+    <definedName name="Dato_18" localSheetId="4">'Formulas EM'!$AA$7</definedName>
+    <definedName name="Dato_18" localSheetId="7">'Formulas EN'!$AA$7</definedName>
+    <definedName name="Dato_18" localSheetId="2">'Formulas O2'!$AA$7</definedName>
+    <definedName name="Dato_18" localSheetId="1">'Formulas OM'!$AA$7</definedName>
+    <definedName name="Dato_18" localSheetId="6">'Formulas PP'!$AA$7</definedName>
+    <definedName name="Dato_18" localSheetId="5">'Formulas RC'!$AA$7</definedName>
+    <definedName name="Dato_18" localSheetId="3">'Formulas VF'!$AA$7</definedName>
+    <definedName name="Dato_19" localSheetId="8">'Formulas CL'!$AA$9</definedName>
+    <definedName name="Dato_19" localSheetId="0">'Formulas DG'!$AA$9</definedName>
+    <definedName name="Dato_19" localSheetId="4">'Formulas EM'!$AA$9</definedName>
+    <definedName name="Dato_19" localSheetId="7">'Formulas EN'!$AA$9</definedName>
+    <definedName name="Dato_19" localSheetId="2">'Formulas O2'!$AA$9</definedName>
+    <definedName name="Dato_19" localSheetId="1">'Formulas OM'!$AA$9</definedName>
+    <definedName name="Dato_19" localSheetId="6">'Formulas PP'!$AA$9</definedName>
+    <definedName name="Dato_19" localSheetId="5">'Formulas RC'!$AA$9</definedName>
+    <definedName name="Dato_19" localSheetId="3">'Formulas VF'!$AA$9</definedName>
+    <definedName name="Dato_20" localSheetId="8">'Formulas CL'!$AA$11</definedName>
+    <definedName name="Dato_20" localSheetId="0">'Formulas DG'!$AA$11</definedName>
+    <definedName name="Dato_20" localSheetId="4">'Formulas EM'!$AA$11</definedName>
+    <definedName name="Dato_20" localSheetId="7">'Formulas EN'!$AA$11</definedName>
+    <definedName name="Dato_20" localSheetId="2">'Formulas O2'!$AA$11</definedName>
+    <definedName name="Dato_20" localSheetId="1">'Formulas OM'!$AA$11</definedName>
+    <definedName name="Dato_20" localSheetId="6">'Formulas PP'!$AA$11</definedName>
+    <definedName name="Dato_20" localSheetId="5">'Formulas RC'!$AA$11</definedName>
+    <definedName name="Dato_20" localSheetId="3">'Formulas VF'!$AA$11</definedName>
+    <definedName name="Dato_21" localSheetId="8">'Formulas CL'!$AA$13</definedName>
+    <definedName name="Dato_21" localSheetId="0">'Formulas DG'!$AA$13</definedName>
+    <definedName name="Dato_21" localSheetId="4">'Formulas EM'!$AA$13</definedName>
+    <definedName name="Dato_21" localSheetId="7">'Formulas EN'!$AA$13</definedName>
+    <definedName name="Dato_21" localSheetId="2">'Formulas O2'!$AA$13</definedName>
+    <definedName name="Dato_21" localSheetId="1">'Formulas OM'!$AA$13</definedName>
+    <definedName name="Dato_21" localSheetId="6">'Formulas PP'!$AA$13</definedName>
+    <definedName name="Dato_21" localSheetId="5">'Formulas RC'!$AA$13</definedName>
+    <definedName name="Dato_21" localSheetId="3">'Formulas VF'!$AA$13</definedName>
+    <definedName name="Dato_22" localSheetId="8">'Formulas CL'!$AA$15</definedName>
+    <definedName name="Dato_22" localSheetId="0">'Formulas DG'!$AA$15</definedName>
+    <definedName name="Dato_22" localSheetId="4">'Formulas EM'!$AA$15</definedName>
+    <definedName name="Dato_22" localSheetId="7">'Formulas EN'!$AA$15</definedName>
+    <definedName name="Dato_22" localSheetId="2">'Formulas O2'!$AA$15</definedName>
+    <definedName name="Dato_22" localSheetId="1">'Formulas OM'!$AA$15</definedName>
+    <definedName name="Dato_22" localSheetId="6">'Formulas PP'!$AA$15</definedName>
+    <definedName name="Dato_22" localSheetId="5">'Formulas RC'!$AA$15</definedName>
+    <definedName name="Dato_22" localSheetId="3">'Formulas VF'!$AA$15</definedName>
+    <definedName name="Dato_23" localSheetId="8">'Formulas CL'!$AA$17</definedName>
+    <definedName name="Dato_23" localSheetId="0">'Formulas DG'!$AA$17</definedName>
+    <definedName name="Dato_23" localSheetId="4">'Formulas EM'!$AA$17</definedName>
+    <definedName name="Dato_23" localSheetId="7">'Formulas EN'!$AA$17</definedName>
+    <definedName name="Dato_23" localSheetId="2">'Formulas O2'!$AA$17</definedName>
+    <definedName name="Dato_23" localSheetId="1">'Formulas OM'!$AA$17</definedName>
+    <definedName name="Dato_23" localSheetId="6">'Formulas PP'!$AA$17</definedName>
+    <definedName name="Dato_23" localSheetId="5">'Formulas RC'!$AA$17</definedName>
+    <definedName name="Dato_23" localSheetId="3">'Formulas VF'!$AA$17</definedName>
+    <definedName name="Dato_24" localSheetId="8">'Formulas CL'!$AA$19</definedName>
+    <definedName name="Dato_24" localSheetId="0">'Formulas DG'!$AA$19</definedName>
+    <definedName name="Dato_24" localSheetId="4">'Formulas EM'!$AA$19</definedName>
+    <definedName name="Dato_24" localSheetId="7">'Formulas EN'!$AA$19</definedName>
+    <definedName name="Dato_24" localSheetId="2">'Formulas O2'!$AA$19</definedName>
+    <definedName name="Dato_24" localSheetId="1">'Formulas OM'!$AA$19</definedName>
+    <definedName name="Dato_24" localSheetId="6">'Formulas PP'!$AA$19</definedName>
+    <definedName name="Dato_24" localSheetId="5">'Formulas RC'!$AA$19</definedName>
+    <definedName name="Dato_24" localSheetId="3">'Formulas VF'!$AA$19</definedName>
+    <definedName name="Dato_25" localSheetId="8">'Formulas CL'!$AA$21</definedName>
+    <definedName name="Dato_25" localSheetId="0">'Formulas DG'!$AA$21</definedName>
+    <definedName name="Dato_25" localSheetId="4">'Formulas EM'!$AA$21</definedName>
+    <definedName name="Dato_25" localSheetId="7">'Formulas EN'!$AA$21</definedName>
+    <definedName name="Dato_25" localSheetId="2">'Formulas O2'!$AA$21</definedName>
+    <definedName name="Dato_25" localSheetId="1">'Formulas OM'!$AA$21</definedName>
+    <definedName name="Dato_25" localSheetId="6">'Formulas PP'!$AA$21</definedName>
+    <definedName name="Dato_25" localSheetId="5">'Formulas RC'!$AA$21</definedName>
+    <definedName name="Dato_25" localSheetId="3">'Formulas VF'!$AA$21</definedName>
     <definedName name="IDIOMA">[1]INICIO!$A$37</definedName>
     <definedName name="P_max_CL">'[1]DATOS GENERALES'!$N$45</definedName>
     <definedName name="P_min_CL">'[1]DATOS GENERALES'!$M$45</definedName>
@@ -183,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="167">
   <si>
     <t>DATO_01</t>
   </si>
@@ -552,6 +571,138 @@
   </si>
   <si>
     <t>V5.0</t>
+  </si>
+  <si>
+    <t>DATOS GENERALES</t>
+  </si>
+  <si>
+    <t>GENERAL DATA</t>
+  </si>
+  <si>
+    <t>Tit. Categoria</t>
+  </si>
+  <si>
+    <t>Desc. Categoría</t>
+  </si>
+  <si>
+    <t>Tit. Subcategoría</t>
+  </si>
+  <si>
+    <t>Desc. Subcategoría</t>
+  </si>
+  <si>
+    <t>Retroalim. General</t>
+  </si>
+  <si>
+    <t>Retroalim. R Correcta</t>
+  </si>
+  <si>
+    <t>Retroalim. R Incorrecta</t>
+  </si>
+  <si>
+    <t>Retroalim. R Parc Correcta</t>
+  </si>
+  <si>
+    <t>Prefijo Preguntas</t>
+  </si>
+  <si>
+    <t>Categ_01</t>
+  </si>
+  <si>
+    <t>Categ_02</t>
+  </si>
+  <si>
+    <t>Categ_03</t>
+  </si>
+  <si>
+    <t>Categ_04</t>
+  </si>
+  <si>
+    <t>Categ_05</t>
+  </si>
+  <si>
+    <t>Categ_06</t>
+  </si>
+  <si>
+    <t>Categ_07</t>
+  </si>
+  <si>
+    <t>Categ_08</t>
+  </si>
+  <si>
+    <t>Categ_09</t>
+  </si>
+  <si>
+    <t>Categ_10</t>
+  </si>
+  <si>
+    <t>Categ_11</t>
+  </si>
+  <si>
+    <t>Categ_12</t>
+  </si>
+  <si>
+    <t>Categ_13</t>
+  </si>
+  <si>
+    <t>Categ_14</t>
+  </si>
+  <si>
+    <t>Categ_15</t>
+  </si>
+  <si>
+    <t>Categ_16</t>
+  </si>
+  <si>
+    <t>Categ_17</t>
+  </si>
+  <si>
+    <t>Categ_18</t>
+  </si>
+  <si>
+    <t>Categ_19</t>
+  </si>
+  <si>
+    <t>Categ_20</t>
+  </si>
+  <si>
+    <t>SubCat_22</t>
+  </si>
+  <si>
+    <t>SubCat_21</t>
+  </si>
+  <si>
+    <t>SubCat_23</t>
+  </si>
+  <si>
+    <t>SubCat_24</t>
+  </si>
+  <si>
+    <t>SubCat_25</t>
+  </si>
+  <si>
+    <t>SubCat_26</t>
+  </si>
+  <si>
+    <t>SubCat_27</t>
+  </si>
+  <si>
+    <t>SubCat_28</t>
+  </si>
+  <si>
+    <t>SubCat_29</t>
+  </si>
+  <si>
+    <t>SubCat_30</t>
+  </si>
+  <si>
+    <t>SubCat_31</t>
+  </si>
+  <si>
+    <t>SubCat_32</t>
+  </si>
+  <si>
+    <t>Mensaje Marcar Texto</t>
   </si>
 </sst>
 </file>
@@ -920,10 +1071,10 @@
       <sheetData sheetId="2">
         <row r="45">
           <cell r="M45">
-            <v>801</v>
+            <v>0</v>
           </cell>
           <cell r="N45">
-            <v>802</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1224,15 +1375,641 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja9"/>
+  <dimension ref="A1:AH127"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="AF16" sqref="AF16"/>
+      <selection pane="topRight" activeCell="AF16" sqref="AF16"/>
+      <selection pane="bottomLeft" activeCell="AF16" sqref="AF16"/>
+      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="25.7109375" style="1" customWidth="1"/>
+    <col min="30" max="34" width="30.7109375" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+    </row>
+    <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+    </row>
+    <row r="4" spans="1:34" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f>COUNTA(AC4:XFD4)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+    </row>
+    <row r="6" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="AC6" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+    </row>
+    <row r="7" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="AC7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+    </row>
+    <row r="8" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="AC8" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+    </row>
+    <row r="9" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="AC9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+    </row>
+    <row r="10" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="AC10" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+    </row>
+    <row r="11" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="AC11" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+    </row>
+    <row r="12" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="AC12" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+    </row>
+    <row r="13" spans="1:34" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="AC13" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+    </row>
+    <row r="14" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="AC14" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+    </row>
+    <row r="15" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="AC15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+    </row>
+    <row r="16" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="AC16" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+    </row>
+    <row r="17" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="AC17" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+    </row>
+    <row r="18" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="AC18" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+    </row>
+    <row r="19" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="AC19" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+    </row>
+    <row r="20" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="AC20" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+    </row>
+    <row r="21" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC21" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+    </row>
+    <row r="22" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="AC22" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+    </row>
+    <row r="23" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="AC23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+    </row>
+    <row r="24" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+      <c r="AC24" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+    </row>
+    <row r="25" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="AC25" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+    </row>
+    <row r="26" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="AC26" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+    </row>
+    <row r="27" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="AC27" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+    </row>
+    <row r="28" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="AC28" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+    </row>
+    <row r="29" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="AC29" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+    </row>
+    <row r="30" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="AC30" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+    </row>
+    <row r="31" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="AC31" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+    </row>
+    <row r="32" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="26"/>
+      <c r="AC32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+    </row>
+    <row r="33" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="26"/>
+      <c r="AC33" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+    </row>
+    <row r="34" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="26"/>
+      <c r="AC34" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+    </row>
+    <row r="35" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="26"/>
+      <c r="AC35" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+    </row>
+    <row r="36" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="26"/>
+      <c r="AC36" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+    </row>
+    <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+    </row>
+    <row r="38" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC39" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC40" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC41" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC42" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC43" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC44" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC45" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC46" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC47" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+    </row>
+    <row r="48" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC48" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="12"/>
+    </row>
+    <row r="49" x14ac:dyDescent="0.25"/>
+    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="52" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="53" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="54" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="55" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="56" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="57" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="58" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="59" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="60" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="61" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="62" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="63" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="64" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="113" x14ac:dyDescent="0.25"/>
+    <row r="114" x14ac:dyDescent="0.25"/>
+    <row r="115" x14ac:dyDescent="0.25"/>
+    <row r="116" x14ac:dyDescent="0.25"/>
+    <row r="117" x14ac:dyDescent="0.25"/>
+    <row r="118" x14ac:dyDescent="0.25"/>
+    <row r="119" x14ac:dyDescent="0.25"/>
+    <row r="120" x14ac:dyDescent="0.25"/>
+    <row r="121" x14ac:dyDescent="0.25"/>
+    <row r="122" x14ac:dyDescent="0.25"/>
+    <row r="123" x14ac:dyDescent="0.25"/>
+    <row r="124" x14ac:dyDescent="0.25"/>
+    <row r="125" x14ac:dyDescent="0.25"/>
+    <row r="126" x14ac:dyDescent="0.25"/>
+    <row r="127" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="lQJM93IZQVvsa3mQ0pAL5Xrp/18hFYOUqwCrXUHc5y3TEcnRPITQRsJxBgtubSQ6UxPVbE4Hxu19a5USj1f8ng==" saltValue="iXxrlJRzf3Us6hcEg3HvxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A21:A36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AH127"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="AF16" sqref="AF16"/>
-      <selection pane="topRight" activeCell="AF16" sqref="AF16"/>
-      <selection pane="bottomLeft" activeCell="AF16" sqref="AF16"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection activeCell="AC48" sqref="AC48"/>
+      <selection pane="topRight" activeCell="AC48" sqref="AC48"/>
+      <selection pane="bottomLeft" activeCell="AC48" sqref="AC48"/>
+      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1973,7 +2750,7 @@
     <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="c8gIe6WgG5QwGIlF5dQoPGXGBcHBvhZj4ExEpEtnPKhw/z5IL2qd+F0ziJQRsOQ+DgKwfAEkmpnasad0c0oxAg==" saltValue="UChs6yM8yioKUlJ6UuIH3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FjW+cIVNWnPoD74dezG2D2NTdegvC2wkmIFXt9FGlkt5os03KKQmydaMqsnKksCoNAKg8pa+zJ4utmD+Pvm8zw==" saltValue="QixaBhNemKAxXq+2MZ6viQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -1983,17 +2760,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AH127"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="AD12" sqref="AD12"/>
-      <selection pane="topRight" activeCell="AD12" sqref="AD12"/>
-      <selection pane="bottomLeft" activeCell="AD12" sqref="AD12"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection activeCell="AC48" sqref="AC48"/>
+      <selection pane="topRight" activeCell="AC48" sqref="AC48"/>
+      <selection pane="bottomLeft" activeCell="AC48" sqref="AC48"/>
+      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2735,7 +3512,7 @@
     <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JDl0OjtBs03MlT1lkocCBrBLd6l6SagOMG/80AZuZkRrl55dkS1uQXY1Deg1fJVqTvGDndsWBZp+Y4nqF+rLlg==" saltValue="yMG00PdWnpOZCn+yHy5Q4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -2744,17 +3521,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:AH127"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="AD12" sqref="AD12"/>
-      <selection pane="topRight" activeCell="AD12" sqref="AD12"/>
-      <selection pane="bottomLeft" activeCell="AD12" sqref="AD12"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection activeCell="AC48" sqref="AC48"/>
+      <selection pane="topRight" activeCell="AC48" sqref="AC48"/>
+      <selection pane="bottomLeft" activeCell="AC48" sqref="AC48"/>
+      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3361,7 +4138,7 @@
     <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WeFm9d23n2L7gEqm7f56ASj6H8UUE6xvuZRD/xHpV5XB5t4j49WVRGhmfkwW1M8H9IYO6ZnMwTPkwBYYT3IjmA==" saltValue="W05r3LweIe+Fzw+vQb0gZg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q0jw0Ub2agtjNsmaxFyrwyJ9nIaAFl+WX+Rg4qm0jVqQQL9mGJo2zzta46tJ/sAtam68USp6VVijU8MH69gDdQ==" saltValue="0LSSRuz9SuEffn1fIXi1Xg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -3370,17 +4147,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:AH130"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="AD12" sqref="AD12"/>
-      <selection pane="topRight" activeCell="AD12" sqref="AD12"/>
-      <selection pane="bottomLeft" activeCell="AD12" sqref="AD12"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection activeCell="AC48" sqref="AC48"/>
+      <selection pane="topRight" activeCell="AC48" sqref="AC48"/>
+      <selection pane="bottomLeft" activeCell="AC48" sqref="AC48"/>
+      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -4179,7 +4956,7 @@
     <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="71vwNEvv6/dacVLSs4b8+x+zdlR99e4Q+DkHmqvGTPfCN5RJk6mAxL7PTO+n9IeQA3aqohE1j4qUoX9F0/MVOg==" saltValue="dOGLLisq7mcAidaNrfg1Hg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VsUxF5sCFhUfpYLrWHryMpEsTZuE9EZBaCluOZCcTK0Vmm8UH5okrbfT5uUPYbGMFuSqB3aeVwit6hkQzFd8aw==" saltValue="6sg5exEMNzgsqzmNy3pxgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -4188,17 +4965,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:AH127"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="AD12" sqref="AD12"/>
-      <selection pane="topRight" activeCell="AD12" sqref="AD12"/>
-      <selection pane="bottomLeft" activeCell="AD12" sqref="AD12"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection activeCell="AC48" sqref="AC48"/>
+      <selection pane="topRight" activeCell="AC48" sqref="AC48"/>
+      <selection pane="bottomLeft" activeCell="AC48" sqref="AC48"/>
+      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -5005,7 +5782,7 @@
     <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JwF35z9eHSpkCx9Vs8l/SesugPhR/1uybSJrF3VklYre4BxDIO9x4zaFUmnZZtmPg09Z9bKD4EfS7MWe3Si5DQ==" saltValue="yNmu6K7ys1A90l8HZ+2MUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IR0/8r+joQl5SjHhAVDqw2pR7ZmmYJaATa8O0Gv4jAZRUS2rJkTSdHDkO9RGDw52Q3ToZlLi20zSIOSETWXKUQ==" saltValue="5XPOg1u/yL9vW3F6GrqfYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -5014,17 +5791,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:AH127"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="AD12" sqref="AD12"/>
-      <selection pane="topRight" activeCell="AD12" sqref="AD12"/>
-      <selection pane="bottomLeft" activeCell="AD12" sqref="AD12"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection activeCell="AC48" sqref="AC48"/>
+      <selection pane="topRight" activeCell="AC48" sqref="AC48"/>
+      <selection pane="bottomLeft" activeCell="AC48" sqref="AC48"/>
+      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -5820,7 +6597,7 @@
     <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jyiqLoikoQqDrbef1VqcppfFG71RXuQCnaFq0vn9bSsZ7F3SXuRtG73SbqOs9ZkAdmowzNDjyfm4vXWer4uqIg==" saltValue="I21Q0ChfRWrMlDVi518EdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1FT5hlXqMzP4/QH9yh1w2DTqY9kI4ymQcrzITAVXKLWqiAKjj6zr0hey4wdp9C++JY/Q+d/Ve4P+MkMdritzBQ==" saltValue="rIbAPUuTcZztIwHEu+tcQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -5829,17 +6606,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:AH127"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="4" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="AD12" sqref="AD12"/>
-      <selection pane="topRight" activeCell="AD12" sqref="AD12"/>
-      <selection pane="bottomLeft" activeCell="AD12" sqref="AD12"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection activeCell="AC48" sqref="AC48"/>
+      <selection pane="topRight" activeCell="AC48" sqref="AC48"/>
+      <selection pane="bottomLeft" activeCell="AC48" sqref="AC48"/>
+      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -6446,7 +7223,7 @@
     <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Egw1tFNLsnguMttxTShKaVRk0ThynUQvfp3XHVgB/dMxI8SZzKZ54zfMKXNbKr+wzd3Yd747u0pfQrMt0Sj/Lw==" saltValue="Us1K81SLtK58Yf2dFeHYNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -6455,17 +7232,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja8"/>
   <dimension ref="A1:AH139"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="4" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="AD12" sqref="AD12"/>
-      <selection pane="topRight" activeCell="AD12" sqref="AD12"/>
-      <selection pane="bottomLeft" activeCell="AD12" sqref="AD12"/>
-      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
+      <selection activeCell="AC48" sqref="AC48"/>
+      <selection pane="topRight" activeCell="AC48" sqref="AC48"/>
+      <selection pane="bottomLeft" activeCell="AC48" sqref="AC48"/>
+      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -7066,7 +7843,7 @@
     <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bOnXkSlJTYhyTLnvaATNgzACycyz4S/pIIV+VhKNZzNLA3lORxPmaXfbvf1LTKjrZ5dg1SbvgWv3MMIHTvE+Aw==" saltValue="DJ1dv0WcjJOnJTd7EUTFXw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d0uz6mthaGPUhDHObNo7W1RRJH6JmzV0pNZ8punPHoceTMjgYGFK8KdO1hQIUK6DPStI70X8Vk+teTYNzZDtRA==" saltValue="7UNb2I3VI42uN6ad6v+YzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>

--- a/FastTest PlugIn - Formula.xlsx
+++ b/FastTest PlugIn - Formula.xlsx
@@ -80,6 +80,9 @@
     <definedName name="Dato_06" localSheetId="6">'Formulas PP'!$Y$15</definedName>
     <definedName name="Dato_06" localSheetId="5">'Formulas RC'!$Y$15</definedName>
     <definedName name="Dato_06" localSheetId="3">'Formulas VF'!$Y$15</definedName>
+    <definedName name="Dato_07" localSheetId="8">'Formulas CL'!$Y$17</definedName>
+    <definedName name="Dato_07" localSheetId="1">'Formulas OM'!$Y$17</definedName>
+    <definedName name="Dato_08" localSheetId="8">'Formulas CL'!$Y$19</definedName>
     <definedName name="Dato_10" localSheetId="8">'Formulas CL'!$Y$23</definedName>
     <definedName name="Dato_10" localSheetId="0">'Formulas DG'!$Y$23</definedName>
     <definedName name="Dato_10" localSheetId="4">'Formulas EM'!$Y$23</definedName>
@@ -188,9 +191,10 @@
     <definedName name="Dato_25" localSheetId="6">'Formulas PP'!$AA$21</definedName>
     <definedName name="Dato_25" localSheetId="5">'Formulas RC'!$AA$21</definedName>
     <definedName name="Dato_25" localSheetId="3">'Formulas VF'!$AA$21</definedName>
+    <definedName name="Dato_32" localSheetId="8">'Formulas CL'!$AA$35</definedName>
     <definedName name="IDIOMA">[1]INICIO!$A$37</definedName>
-    <definedName name="P_max_CL">'[1]DATOS GENERALES'!$N$45</definedName>
-    <definedName name="P_min_CL">'[1]DATOS GENERALES'!$M$45</definedName>
+    <definedName name="P_max_CL">#REF!</definedName>
+    <definedName name="P_min_CL">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -202,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="167">
   <si>
     <t>DATO_01</t>
   </si>
@@ -570,9 +574,6 @@
     <t>VARIABLES</t>
   </si>
   <si>
-    <t>V5.0</t>
-  </si>
-  <si>
     <t>DATOS GENERALES</t>
   </si>
   <si>
@@ -666,43 +667,46 @@
     <t>Categ_20</t>
   </si>
   <si>
-    <t>SubCat_22</t>
-  </si>
-  <si>
-    <t>SubCat_21</t>
-  </si>
-  <si>
-    <t>SubCat_23</t>
-  </si>
-  <si>
-    <t>SubCat_24</t>
-  </si>
-  <si>
-    <t>SubCat_25</t>
-  </si>
-  <si>
-    <t>SubCat_26</t>
-  </si>
-  <si>
-    <t>SubCat_27</t>
-  </si>
-  <si>
-    <t>SubCat_28</t>
-  </si>
-  <si>
-    <t>SubCat_29</t>
-  </si>
-  <si>
-    <t>SubCat_30</t>
-  </si>
-  <si>
-    <t>SubCat_31</t>
-  </si>
-  <si>
-    <t>SubCat_32</t>
-  </si>
-  <si>
     <t>Mensaje Marcar Texto</t>
+  </si>
+  <si>
+    <t>SubCat_01</t>
+  </si>
+  <si>
+    <t>SubCat_02</t>
+  </si>
+  <si>
+    <t>SubCat_03</t>
+  </si>
+  <si>
+    <t>SubCat_04</t>
+  </si>
+  <si>
+    <t>SubCat_05</t>
+  </si>
+  <si>
+    <t>SubCat_06</t>
+  </si>
+  <si>
+    <t>SubCat_07</t>
+  </si>
+  <si>
+    <t>SubCat_08</t>
+  </si>
+  <si>
+    <t>SubCat_09</t>
+  </si>
+  <si>
+    <t>SubCat_10</t>
+  </si>
+  <si>
+    <t>SubCat_11</t>
+  </si>
+  <si>
+    <t>SubCat_12</t>
+  </si>
+  <si>
+    <t>V6.0</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1032,7 @@
     <sheetNames>
       <sheetName val="DICCIONARIO"/>
       <sheetName val="INICIO"/>
-      <sheetName val="DATOS GENERALES"/>
+      <sheetName val="GENERAL"/>
       <sheetName val="Formulario OM"/>
       <sheetName val="Datos OM"/>
       <sheetName val="Formulario O2"/>
@@ -1058,6 +1062,7 @@
       <sheetName val="DOC_2"/>
       <sheetName val="DOC_TEMP"/>
       <sheetName val="OCA"/>
+      <sheetName val="DATOS GENERALES"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1068,16 +1073,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="45">
-          <cell r="M45">
-            <v>0</v>
-          </cell>
-          <cell r="N45">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -1107,6 +1103,13 @@
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
+      <sheetData sheetId="32">
+        <row r="45">
+          <cell r="M45">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1434,10 +1437,10 @@
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
@@ -1448,7 +1451,7 @@
     <row r="6" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="AC6" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
@@ -1459,7 +1462,7 @@
     <row r="7" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="AC7" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
@@ -1470,7 +1473,7 @@
     <row r="8" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="AC8" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
@@ -1481,7 +1484,7 @@
     <row r="9" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="AC9" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
@@ -1492,7 +1495,7 @@
     <row r="10" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="AC10" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
@@ -1503,7 +1506,7 @@
     <row r="11" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="AC11" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
@@ -1514,7 +1517,7 @@
     <row r="12" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="AC12" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
@@ -1525,7 +1528,7 @@
     <row r="13" spans="1:34" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="AC13" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD13" s="10"/>
       <c r="AE13" s="10"/>
@@ -1536,7 +1539,7 @@
     <row r="14" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="AC14" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AD14" s="10"/>
       <c r="AE14" s="10"/>
@@ -1547,7 +1550,7 @@
     <row r="15" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="AC15" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AD15" s="10"/>
       <c r="AE15" s="10"/>
@@ -1558,7 +1561,7 @@
     <row r="16" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="AC16" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD16" s="10"/>
       <c r="AE16" s="10"/>
@@ -1569,7 +1572,7 @@
     <row r="17" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="AC17" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD17" s="10"/>
       <c r="AE17" s="10"/>
@@ -1580,7 +1583,7 @@
     <row r="18" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="AC18" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD18" s="10"/>
       <c r="AE18" s="10"/>
@@ -1591,7 +1594,7 @@
     <row r="19" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="AC19" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD19" s="10"/>
       <c r="AE19" s="10"/>
@@ -1602,7 +1605,7 @@
     <row r="20" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="AC20" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD20" s="10"/>
       <c r="AE20" s="10"/>
@@ -1612,10 +1615,10 @@
     </row>
     <row r="21" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AC21" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
@@ -1626,7 +1629,7 @@
     <row r="22" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="AC22" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD22" s="10"/>
       <c r="AE22" s="10"/>
@@ -1637,7 +1640,7 @@
     <row r="23" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="AC23" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
@@ -1647,30 +1650,30 @@
     </row>
     <row r="24" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
-      <c r="AC24" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
+      <c r="AC24" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
     </row>
     <row r="25" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
-      <c r="AC25" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
+      <c r="AC25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
     </row>
     <row r="26" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
       <c r="AC26" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
@@ -1790,7 +1793,7 @@
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -1811,7 +1814,7 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC39" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AD39" s="8"/>
       <c r="AE39" s="8"/>
@@ -1821,7 +1824,7 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC40" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD40" s="10"/>
       <c r="AE40" s="10"/>
@@ -1831,7 +1834,7 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC41" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD41" s="10"/>
       <c r="AE41" s="10"/>
@@ -1841,7 +1844,7 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC42" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD42" s="10"/>
       <c r="AE42" s="10"/>
@@ -1851,7 +1854,7 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC43" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AD43" s="10"/>
       <c r="AE43" s="10"/>
@@ -1861,7 +1864,7 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC44" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
@@ -1871,7 +1874,7 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC45" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD45" s="10"/>
       <c r="AE45" s="10"/>
@@ -1881,7 +1884,7 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC46" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD46" s="10"/>
       <c r="AE46" s="10"/>
@@ -1891,7 +1894,7 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC47" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD47" s="10"/>
       <c r="AE47" s="10"/>
@@ -1901,7 +1904,7 @@
     </row>
     <row r="48" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AC48" s="15" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="AD48" s="12"/>
       <c r="AE48" s="12"/>
@@ -1973,23 +1976,23 @@
     <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" x14ac:dyDescent="0.25"/>
-    <row r="114" x14ac:dyDescent="0.25"/>
-    <row r="115" x14ac:dyDescent="0.25"/>
-    <row r="116" x14ac:dyDescent="0.25"/>
-    <row r="117" x14ac:dyDescent="0.25"/>
-    <row r="118" x14ac:dyDescent="0.25"/>
-    <row r="119" x14ac:dyDescent="0.25"/>
-    <row r="120" x14ac:dyDescent="0.25"/>
-    <row r="121" x14ac:dyDescent="0.25"/>
-    <row r="122" x14ac:dyDescent="0.25"/>
-    <row r="123" x14ac:dyDescent="0.25"/>
-    <row r="124" x14ac:dyDescent="0.25"/>
-    <row r="125" x14ac:dyDescent="0.25"/>
-    <row r="126" x14ac:dyDescent="0.25"/>
-    <row r="127" x14ac:dyDescent="0.25"/>
+    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lQJM93IZQVvsa3mQ0pAL5Xrp/18hFYOUqwCrXUHc5y3TEcnRPITQRsJxBgtubSQ6UxPVbE4Hxu19a5USj1f8ng==" saltValue="iXxrlJRzf3Us6hcEg3HvxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="z3gvLj4K+7/e8fdl3C2xyAeWZFp17aI8GfDWfvB/XB+CP8QYpXay9CCwc1PkjnsNMGeugFtbUJ4sQelsfTHy6A==" saltValue="VH3amv1o2NFKWyeGOTuuag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -2415,8 +2418,9 @@
       <c r="AH36" s="12"/>
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
-        <v>122</v>
+      <c r="A37" s="25" t="str">
+        <f>'Formulas DG'!A37</f>
+        <v>V6.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -2750,7 +2754,7 @@
     <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FjW+cIVNWnPoD74dezG2D2NTdegvC2wkmIFXt9FGlkt5os03KKQmydaMqsnKksCoNAKg8pa+zJ4utmD+Pvm8zw==" saltValue="QixaBhNemKAxXq+2MZ6viQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ggCFnJrWvtpZWMJctKTCvtWqk9z2Hdgi17AJjSahZ6yE2WdkzHvh3TfRd3dLqiVkN2ZyeX11xffFR7wiVjtV2A==" saltValue="VQqcffabnjBdJcU3aCRYew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -3178,7 +3182,7 @@
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V5.0</v>
+        <v>V6.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -3939,7 +3943,7 @@
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V5.0</v>
+        <v>V6.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -4157,7 +4161,7 @@
       <selection activeCell="AC48" sqref="AC48"/>
       <selection pane="topRight" activeCell="AC48" sqref="AC48"/>
       <selection pane="bottomLeft" activeCell="AC48" sqref="AC48"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -4565,7 +4569,7 @@
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V5.0</v>
+        <v>V6.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -4975,7 +4979,7 @@
       <selection activeCell="AC48" sqref="AC48"/>
       <selection pane="topRight" activeCell="AC48" sqref="AC48"/>
       <selection pane="bottomLeft" activeCell="AC48" sqref="AC48"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -5383,7 +5387,7 @@
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V5.0</v>
+        <v>V6.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -5801,7 +5805,7 @@
       <selection activeCell="AC48" sqref="AC48"/>
       <selection pane="topRight" activeCell="AC48" sqref="AC48"/>
       <selection pane="bottomLeft" activeCell="AC48" sqref="AC48"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -6209,7 +6213,7 @@
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V5.0</v>
+        <v>V6.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -6616,7 +6620,7 @@
       <selection activeCell="AC48" sqref="AC48"/>
       <selection pane="topRight" activeCell="AC48" sqref="AC48"/>
       <selection pane="bottomLeft" activeCell="AC48" sqref="AC48"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -7024,7 +7028,7 @@
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V5.0</v>
+        <v>V6.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -7650,7 +7654,7 @@
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V5.0</v>
+        <v>V6.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -7703,7 +7707,7 @@
       <c r="AC42" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AD42" s="10"/>
+      <c r="AD42" s="21"/>
       <c r="AE42" s="21"/>
       <c r="AF42" s="21"/>
       <c r="AG42" s="21"/>

--- a/FastTest PlugIn - Formula.xlsx
+++ b/FastTest PlugIn - Formula.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AHGM\0. APLICACIONES\FastTest PlugIn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milag\Desktop\FastTest PlugIn\z. V7.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731D7D46-11AB-4E8C-B4BA-9AC676741BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10920" tabRatio="805" activeTab="1"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="12266" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas DG" sheetId="9" r:id="rId1"/>
@@ -200,17 +201,28 @@
     <definedName name="Dato_31" localSheetId="8">'Formulas CL'!$AA$33</definedName>
     <definedName name="Dato_32" localSheetId="8">'Formulas CL'!$AA$35</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="168">
   <si>
     <t>DATO_01</t>
   </si>
@@ -710,13 +722,16 @@
     <t>SubCat_12</t>
   </si>
   <si>
-    <t>V - 7.0</t>
+    <t>ANCHO IMAGEN OM</t>
+  </si>
+  <si>
+    <t>V - 7.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -920,12 +935,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,41 +977,25 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1301,34 +1300,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja9"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS48" sqref="AS48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.703125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="25.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="17" customWidth="1"/>
+    <col min="29" max="29" width="25.703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.703125" style="14" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="17" customWidth="1"/>
+    <col min="33" max="33" width="30.703125" style="14" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="17" customWidth="1"/>
+    <col min="36" max="36" width="30.703125" style="14" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="17" customWidth="1"/>
+    <col min="39" max="39" width="30.703125" style="14" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="17" customWidth="1"/>
+    <col min="42" max="42" width="30.703125" style="14" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="17" customWidth="1"/>
+    <col min="45" max="45" width="30.703125" style="14" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC1"/>
       <c r="AD1" t="str">
         <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
@@ -1355,7 +1354,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC2"/>
       <c r="AD2">
         <f>COUNTA(AD5:AD36)</f>
@@ -1382,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
       <c r="AD3">
         <f>COUNTA(AD39:AD79)</f>
@@ -1409,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -1424,8 +1423,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>122</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -1438,8 +1437,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>134</v>
       </c>
@@ -1450,8 +1449,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>135</v>
       </c>
@@ -1462,8 +1461,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>136</v>
       </c>
@@ -1474,8 +1473,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>137</v>
       </c>
@@ -1486,8 +1485,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>138</v>
       </c>
@@ -1498,8 +1497,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>139</v>
       </c>
@@ -1510,8 +1509,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>140</v>
       </c>
@@ -1522,8 +1521,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>141</v>
       </c>
@@ -1534,8 +1533,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>142</v>
       </c>
@@ -1546,8 +1545,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>143</v>
       </c>
@@ -1558,8 +1557,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>144</v>
       </c>
@@ -1570,8 +1569,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>145</v>
       </c>
@@ -1582,8 +1581,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>146</v>
       </c>
@@ -1594,8 +1593,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>147</v>
       </c>
@@ -1606,8 +1605,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>148</v>
       </c>
@@ -1618,8 +1617,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>123</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -1632,8 +1631,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>150</v>
       </c>
@@ -1644,8 +1643,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>151</v>
       </c>
@@ -1656,8 +1655,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="11" t="s">
         <v>152</v>
       </c>
@@ -1668,8 +1667,8 @@
       <c r="AP24" s="12"/>
       <c r="AS24" s="12"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="7" t="s">
         <v>154</v>
       </c>
@@ -1680,8 +1679,8 @@
       <c r="AP25" s="8"/>
       <c r="AS25" s="8"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>155</v>
       </c>
@@ -1692,8 +1691,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>156</v>
       </c>
@@ -1704,8 +1703,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>157</v>
       </c>
@@ -1716,8 +1715,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>158</v>
       </c>
@@ -1728,8 +1727,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>159</v>
       </c>
@@ -1740,8 +1739,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>160</v>
       </c>
@@ -1752,8 +1751,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>161</v>
       </c>
@@ -1764,8 +1763,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>162</v>
       </c>
@@ -1776,8 +1775,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>163</v>
       </c>
@@ -1788,8 +1787,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>164</v>
       </c>
@@ -1800,8 +1799,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>165</v>
       </c>
@@ -1812,9 +1811,9 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" s="24" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
-        <v>166</v>
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -1824,7 +1823,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -1835,8 +1834,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>124</v>
       </c>
       <c r="AD39" s="8"/>
@@ -1846,8 +1845,8 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>125</v>
       </c>
       <c r="AD40" s="10"/>
@@ -1857,8 +1856,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>126</v>
       </c>
       <c r="AD41" s="10"/>
@@ -1868,8 +1867,8 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>127</v>
       </c>
       <c r="AD42" s="10"/>
@@ -1879,8 +1878,8 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>128</v>
       </c>
       <c r="AD43" s="10"/>
@@ -1890,8 +1889,8 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>129</v>
       </c>
       <c r="AD44" s="10"/>
@@ -1901,8 +1900,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>131</v>
       </c>
       <c r="AD45" s="10"/>
@@ -1912,8 +1911,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>130</v>
       </c>
       <c r="AD46" s="10"/>
@@ -1923,8 +1922,8 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>132</v>
       </c>
       <c r="AD47" s="10"/>
@@ -1934,8 +1933,8 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC48" s="15" t="s">
+    <row r="48" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC48" s="11" t="s">
         <v>153</v>
       </c>
       <c r="AD48" s="12"/>
@@ -1945,89 +1944,11 @@
       <c r="AP48" s="12"/>
       <c r="AS48" s="12"/>
     </row>
-    <row r="49" spans="29:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AC49" s="25"/>
-    </row>
-    <row r="50" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="29:29" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="AC49" s="1"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uFGRbBxdtCPXInVP3YfMqf1wEh+uS/A/rnErjIO1i6YmdGJBgK4wKEQ31C4j9rA2EWb6wZvIjJ3IlCe0t9YiNg==" saltValue="Xvv5pqd66WwbLkp7aDOvhg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="D0MxQGW/CQ04pELlDXpDaZ8nvcW+2hYugC3VG8ZGPol6I/agbqHwOLQW5g3iDcoztHYpUZ5TqX1P4nDtdgx/lw==" saltValue="hksXG2Jm+t6OsuMkWAM03g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -2038,11 +1959,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS64"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AG14" sqref="AG14"/>
       <selection pane="topRight" activeCell="AG14" sqref="AG14"/>
@@ -2050,26 +1971,26 @@
       <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.703125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.703125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.703125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.703125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.703125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.703125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.703125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
       <c r="AD1" t="str">
         <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
@@ -2096,7 +2017,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
       <c r="AD2">
         <f>COUNTA(AD5:AD36)</f>
@@ -2123,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
       <c r="AD3">
         <f>COUNTA(AD39:AD79)</f>
@@ -2150,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -2165,8 +2086,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>105</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -2179,8 +2100,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -2191,8 +2112,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -2203,8 +2124,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -2215,8 +2136,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2227,8 +2148,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -2239,8 +2160,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -2251,8 +2172,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -2263,8 +2184,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -2275,8 +2196,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -2287,8 +2208,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -2299,8 +2220,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -2311,8 +2232,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -2323,8 +2244,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -2335,8 +2256,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -2347,8 +2268,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -2359,8 +2280,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>106</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -2373,8 +2294,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -2385,8 +2306,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -2397,8 +2318,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -2409,8 +2330,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -2421,8 +2342,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -2433,8 +2354,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -2445,8 +2366,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -2457,8 +2378,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -2469,8 +2390,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -2481,8 +2402,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -2493,8 +2414,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -2505,8 +2426,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -2517,8 +2438,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -2529,8 +2450,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -2541,8 +2462,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -2553,10 +2474,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas DG'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 7.7</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -2566,7 +2487,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -2577,8 +2498,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8"/>
@@ -2588,8 +2509,8 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AD40" s="10"/>
@@ -2599,8 +2520,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>40</v>
       </c>
       <c r="AD41" s="10"/>
@@ -2610,8 +2531,8 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>41</v>
       </c>
       <c r="AD42" s="10"/>
@@ -2621,8 +2542,8 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="AD43" s="10"/>
@@ -2632,8 +2553,8 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AD44" s="10"/>
@@ -2643,8 +2564,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AD45" s="10"/>
@@ -2654,8 +2575,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>45</v>
       </c>
       <c r="AD46" s="10"/>
@@ -2665,8 +2586,8 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>46</v>
       </c>
       <c r="AD47" s="10"/>
@@ -2676,8 +2597,8 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC48" s="14" t="s">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AD48" s="10"/>
@@ -2687,8 +2608,8 @@
       <c r="AP48" s="10"/>
       <c r="AS48" s="10"/>
     </row>
-    <row r="49" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC49" s="14" t="s">
+    <row r="49" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC49" s="9" t="s">
         <v>48</v>
       </c>
       <c r="AD49" s="10"/>
@@ -2698,8 +2619,8 @@
       <c r="AP49" s="10"/>
       <c r="AS49" s="10"/>
     </row>
-    <row r="50" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC50" s="14" t="s">
+    <row r="50" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="AD50" s="10"/>
@@ -2709,8 +2630,8 @@
       <c r="AP50" s="10"/>
       <c r="AS50" s="10"/>
     </row>
-    <row r="51" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC51" s="14" t="s">
+    <row r="51" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC51" s="9" t="s">
         <v>50</v>
       </c>
       <c r="AD51" s="10"/>
@@ -2720,8 +2641,8 @@
       <c r="AP51" s="10"/>
       <c r="AS51" s="10"/>
     </row>
-    <row r="52" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC52" s="14" t="s">
+    <row r="52" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC52" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AD52" s="10"/>
@@ -2731,8 +2652,8 @@
       <c r="AP52" s="10"/>
       <c r="AS52" s="10"/>
     </row>
-    <row r="53" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC53" s="14" t="s">
+    <row r="53" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC53" s="9" t="s">
         <v>52</v>
       </c>
       <c r="AD53" s="10"/>
@@ -2742,8 +2663,8 @@
       <c r="AP53" s="10"/>
       <c r="AS53" s="10"/>
     </row>
-    <row r="54" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC54" s="14" t="s">
+    <row r="54" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC54" s="9" t="s">
         <v>53</v>
       </c>
       <c r="AD54" s="10"/>
@@ -2753,8 +2674,8 @@
       <c r="AP54" s="10"/>
       <c r="AS54" s="10"/>
     </row>
-    <row r="55" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC55" s="14" t="s">
+    <row r="55" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC55" s="9" t="s">
         <v>54</v>
       </c>
       <c r="AD55" s="10"/>
@@ -2764,8 +2685,8 @@
       <c r="AP55" s="10"/>
       <c r="AS55" s="10"/>
     </row>
-    <row r="56" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC56" s="14" t="s">
+    <row r="56" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC56" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AD56" s="10"/>
@@ -2775,8 +2696,8 @@
       <c r="AP56" s="10"/>
       <c r="AS56" s="10"/>
     </row>
-    <row r="57" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC57" s="14" t="s">
+    <row r="57" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC57" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AD57" s="10"/>
@@ -2786,30 +2707,30 @@
       <c r="AP57" s="10"/>
       <c r="AS57" s="10"/>
     </row>
-    <row r="58" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC58" s="16" t="s">
+    <row r="58" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD58" s="26"/>
-      <c r="AG58" s="26"/>
-      <c r="AJ58" s="26"/>
-      <c r="AM58" s="26"/>
-      <c r="AP58" s="26"/>
-      <c r="AS58" s="26"/>
-    </row>
-    <row r="59" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC59" s="18" t="s">
+      <c r="AD58" s="20"/>
+      <c r="AG58" s="20"/>
+      <c r="AJ58" s="20"/>
+      <c r="AM58" s="20"/>
+      <c r="AP58" s="20"/>
+      <c r="AS58" s="20"/>
+    </row>
+    <row r="59" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC59" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD59" s="27"/>
-      <c r="AG59" s="27"/>
-      <c r="AJ59" s="27"/>
-      <c r="AM59" s="27"/>
-      <c r="AP59" s="27"/>
-      <c r="AS59" s="27"/>
-    </row>
-    <row r="60" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC60" s="14" t="s">
+      <c r="AD59" s="21"/>
+      <c r="AG59" s="21"/>
+      <c r="AJ59" s="21"/>
+      <c r="AM59" s="21"/>
+      <c r="AP59" s="21"/>
+      <c r="AS59" s="21"/>
+    </row>
+    <row r="60" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC60" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD60" s="10"/>
@@ -2819,8 +2740,8 @@
       <c r="AP60" s="10"/>
       <c r="AS60" s="10"/>
     </row>
-    <row r="61" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC61" s="14" t="s">
+    <row r="61" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC61" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD61" s="10"/>
@@ -2830,8 +2751,8 @@
       <c r="AP61" s="10"/>
       <c r="AS61" s="10"/>
     </row>
-    <row r="62" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC62" s="14" t="s">
+    <row r="62" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC62" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD62" s="10"/>
@@ -2841,8 +2762,8 @@
       <c r="AP62" s="10"/>
       <c r="AS62" s="10"/>
     </row>
-    <row r="63" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC63" s="15" t="s">
+    <row r="63" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC63" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD63" s="12"/>
@@ -2852,72 +2773,9 @@
       <c r="AP63" s="12"/>
       <c r="AS63" s="12"/>
     </row>
-    <row r="64" spans="29:45" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="29:45" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OzvpFTGkDORSjkvSEWpv0UKV9rDbtoke7oaPGcMu3wEl3SNDFGZGHsGL/MUeWqkyqo7CNYbFRmWP2DSZES/hXw==" saltValue="cdCTXrk6RuU0RYihgIh7tQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XuoGYfeIXLcvT3LgSL8+DXYQZ3T6vKW+M9epkikHtyIpt7HjxdTYFx9ZUouhWIFdv2fKbbAV3da9dXmUG6NPJQ==" saltValue="aHNJL4NCQNEojw9bF+T1PA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -2928,9 +2786,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS64"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
@@ -2940,26 +2798,26 @@
       <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.703125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.703125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.703125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.703125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.703125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.703125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.703125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
       <c r="AD1" t="str">
         <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
@@ -2986,7 +2844,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
       <c r="AD2">
         <f>COUNTA(AD5:AD36)</f>
@@ -3013,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
       <c r="AD3">
         <f>COUNTA(AD39:AD79)</f>
@@ -3040,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -3055,8 +2913,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>107</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -3069,8 +2927,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -3081,8 +2939,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -3093,8 +2951,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -3105,8 +2963,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -3117,8 +2975,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -3129,8 +2987,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -3141,8 +2999,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -3153,8 +3011,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -3165,8 +3023,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -3177,8 +3035,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -3189,8 +3047,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -3201,8 +3059,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -3213,8 +3071,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -3225,8 +3083,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -3237,8 +3095,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -3249,8 +3107,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>108</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -3263,8 +3121,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -3275,8 +3133,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -3287,8 +3145,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -3299,8 +3157,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -3311,8 +3169,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -3323,8 +3181,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -3335,8 +3193,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -3347,8 +3205,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -3359,8 +3217,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -3371,8 +3229,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -3383,8 +3241,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -3395,8 +3253,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -3407,8 +3265,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -3419,8 +3277,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -3431,8 +3289,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -3443,10 +3301,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 7.7</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -3456,7 +3314,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -3467,8 +3325,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8"/>
@@ -3478,8 +3336,8 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AD40" s="10"/>
@@ -3489,8 +3347,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>40</v>
       </c>
       <c r="AD41" s="10"/>
@@ -3500,8 +3358,8 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>41</v>
       </c>
       <c r="AD42" s="10"/>
@@ -3511,8 +3369,8 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="AD43" s="10"/>
@@ -3522,8 +3380,8 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AD44" s="10"/>
@@ -3533,8 +3391,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AD45" s="10"/>
@@ -3544,8 +3402,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>45</v>
       </c>
       <c r="AD46" s="10"/>
@@ -3555,8 +3413,8 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>46</v>
       </c>
       <c r="AD47" s="10"/>
@@ -3566,8 +3424,8 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC48" s="14" t="s">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AD48" s="10"/>
@@ -3577,8 +3435,8 @@
       <c r="AP48" s="10"/>
       <c r="AS48" s="10"/>
     </row>
-    <row r="49" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC49" s="14" t="s">
+    <row r="49" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC49" s="9" t="s">
         <v>48</v>
       </c>
       <c r="AD49" s="10"/>
@@ -3588,8 +3446,8 @@
       <c r="AP49" s="10"/>
       <c r="AS49" s="10"/>
     </row>
-    <row r="50" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC50" s="14" t="s">
+    <row r="50" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="AD50" s="10"/>
@@ -3599,8 +3457,8 @@
       <c r="AP50" s="10"/>
       <c r="AS50" s="10"/>
     </row>
-    <row r="51" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC51" s="14" t="s">
+    <row r="51" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC51" s="9" t="s">
         <v>50</v>
       </c>
       <c r="AD51" s="10"/>
@@ -3610,8 +3468,8 @@
       <c r="AP51" s="10"/>
       <c r="AS51" s="10"/>
     </row>
-    <row r="52" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC52" s="14" t="s">
+    <row r="52" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC52" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AD52" s="10"/>
@@ -3621,8 +3479,8 @@
       <c r="AP52" s="10"/>
       <c r="AS52" s="10"/>
     </row>
-    <row r="53" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC53" s="14" t="s">
+    <row r="53" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC53" s="9" t="s">
         <v>52</v>
       </c>
       <c r="AD53" s="10"/>
@@ -3632,8 +3490,8 @@
       <c r="AP53" s="10"/>
       <c r="AS53" s="10"/>
     </row>
-    <row r="54" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC54" s="14" t="s">
+    <row r="54" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC54" s="9" t="s">
         <v>53</v>
       </c>
       <c r="AD54" s="10"/>
@@ -3643,8 +3501,8 @@
       <c r="AP54" s="10"/>
       <c r="AS54" s="10"/>
     </row>
-    <row r="55" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC55" s="14" t="s">
+    <row r="55" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC55" s="9" t="s">
         <v>54</v>
       </c>
       <c r="AD55" s="10"/>
@@ -3654,8 +3512,8 @@
       <c r="AP55" s="10"/>
       <c r="AS55" s="10"/>
     </row>
-    <row r="56" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC56" s="14" t="s">
+    <row r="56" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC56" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AD56" s="10"/>
@@ -3665,8 +3523,8 @@
       <c r="AP56" s="10"/>
       <c r="AS56" s="10"/>
     </row>
-    <row r="57" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC57" s="14" t="s">
+    <row r="57" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC57" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AD57" s="10"/>
@@ -3676,30 +3534,30 @@
       <c r="AP57" s="10"/>
       <c r="AS57" s="10"/>
     </row>
-    <row r="58" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC58" s="16" t="s">
+    <row r="58" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD58" s="26"/>
-      <c r="AG58" s="26"/>
-      <c r="AJ58" s="26"/>
-      <c r="AM58" s="26"/>
-      <c r="AP58" s="26"/>
-      <c r="AS58" s="26"/>
-    </row>
-    <row r="59" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC59" s="18" t="s">
+      <c r="AD58" s="20"/>
+      <c r="AG58" s="20"/>
+      <c r="AJ58" s="20"/>
+      <c r="AM58" s="20"/>
+      <c r="AP58" s="20"/>
+      <c r="AS58" s="20"/>
+    </row>
+    <row r="59" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC59" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD59" s="27"/>
-      <c r="AG59" s="27"/>
-      <c r="AJ59" s="27"/>
-      <c r="AM59" s="27"/>
-      <c r="AP59" s="27"/>
-      <c r="AS59" s="27"/>
-    </row>
-    <row r="60" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC60" s="14" t="s">
+      <c r="AD59" s="21"/>
+      <c r="AG59" s="21"/>
+      <c r="AJ59" s="21"/>
+      <c r="AM59" s="21"/>
+      <c r="AP59" s="21"/>
+      <c r="AS59" s="21"/>
+    </row>
+    <row r="60" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC60" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD60" s="10"/>
@@ -3709,8 +3567,8 @@
       <c r="AP60" s="10"/>
       <c r="AS60" s="10"/>
     </row>
-    <row r="61" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC61" s="14" t="s">
+    <row r="61" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC61" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD61" s="10"/>
@@ -3720,8 +3578,8 @@
       <c r="AP61" s="10"/>
       <c r="AS61" s="10"/>
     </row>
-    <row r="62" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC62" s="14" t="s">
+    <row r="62" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC62" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD62" s="10"/>
@@ -3731,8 +3589,8 @@
       <c r="AP62" s="10"/>
       <c r="AS62" s="10"/>
     </row>
-    <row r="63" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC63" s="15" t="s">
+    <row r="63" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC63" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD63" s="12"/>
@@ -3742,72 +3600,9 @@
       <c r="AP63" s="12"/>
       <c r="AS63" s="12"/>
     </row>
-    <row r="64" spans="29:45" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="29:45" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fUbEX/wnd4GvEdEHVyh8fvAxD2XJms5xsNxQSca3ZqQk3IzARojA+/rApUUPcVFzTeFlKYJW+Ywq1wBRosubPg==" saltValue="B/4FpQbvD0SttfA/pvTF7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sIxvDV7giMTM0O4LJxC+KCNi0/CCZDtQ/Yh8WL72fd8MiTkPMpauSj+EVki5HC8pGeSTgKt4n5dG+hhTkFRvOQ==" saltValue="iuMvsB3eU8AOrlqUhkNaoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -3817,9 +3612,9 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS49"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
@@ -3829,26 +3624,26 @@
       <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.703125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="17" customWidth="1"/>
+    <col min="29" max="29" width="15.703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.703125" style="14" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="17" customWidth="1"/>
+    <col min="33" max="33" width="30.703125" style="14" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="17" customWidth="1"/>
+    <col min="36" max="36" width="30.703125" style="14" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="17" customWidth="1"/>
+    <col min="39" max="39" width="30.703125" style="14" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="17" customWidth="1"/>
+    <col min="42" max="42" width="30.703125" style="14" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="17" customWidth="1"/>
+    <col min="45" max="45" width="30.703125" style="14" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
       <c r="AD1" t="str">
         <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
@@ -3875,7 +3670,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
       <c r="AD2">
         <f>COUNTA(AD5:AD36)</f>
@@ -3902,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
       <c r="AD3">
         <f>COUNTA(AD39:AD79)</f>
@@ -3929,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -3944,8 +3739,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -3958,8 +3753,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -3970,8 +3765,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -3982,8 +3777,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -3994,8 +3789,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -4006,8 +3801,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -4018,8 +3813,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -4030,8 +3825,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -4042,8 +3837,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -4054,8 +3849,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -4066,8 +3861,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -4078,8 +3873,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -4090,8 +3885,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -4102,8 +3897,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -4114,8 +3909,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -4126,8 +3921,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -4138,8 +3933,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>110</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -4152,8 +3947,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -4164,8 +3959,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -4176,8 +3971,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -4188,8 +3983,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -4200,8 +3995,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -4212,8 +4007,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -4224,8 +4019,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -4236,8 +4031,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -4248,8 +4043,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -4260,8 +4055,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -4272,8 +4067,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -4284,8 +4079,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -4296,8 +4091,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -4308,8 +4103,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -4320,8 +4115,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -4332,10 +4127,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" s="24" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 7.7</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -4345,7 +4140,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -4356,8 +4151,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8"/>
@@ -4367,8 +4162,8 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AD40" s="10"/>
@@ -4378,8 +4173,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>58</v>
       </c>
       <c r="AD41" s="10"/>
@@ -4389,8 +4184,8 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>60</v>
       </c>
       <c r="AD42" s="10"/>
@@ -4400,29 +4195,29 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC43" s="15" t="s">
+    <row r="43" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC43" s="11" t="s">
         <v>59</v>
       </c>
       <c r="AD43" s="12"/>
-      <c r="AE43" s="20"/>
-      <c r="AF43" s="20"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
       <c r="AG43" s="12"/>
-      <c r="AH43" s="20"/>
-      <c r="AI43" s="20"/>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="17"/>
       <c r="AJ43" s="12"/>
-      <c r="AK43" s="20"/>
-      <c r="AL43" s="20"/>
+      <c r="AK43" s="17"/>
+      <c r="AL43" s="17"/>
       <c r="AM43" s="12"/>
-      <c r="AN43" s="20"/>
-      <c r="AO43" s="20"/>
+      <c r="AN43" s="17"/>
+      <c r="AO43" s="17"/>
       <c r="AP43" s="12"/>
-      <c r="AQ43" s="20"/>
-      <c r="AR43" s="20"/>
+      <c r="AQ43" s="17"/>
+      <c r="AR43" s="17"/>
       <c r="AS43" s="12"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="13" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="7" t="s">
         <v>35</v>
       </c>
       <c r="AD44" s="8"/>
@@ -4432,8 +4227,8 @@
       <c r="AP44" s="8"/>
       <c r="AS44" s="8"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD45" s="10"/>
@@ -4443,8 +4238,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD46" s="10"/>
@@ -4454,8 +4249,8 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD47" s="10"/>
@@ -4465,8 +4260,8 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC48" s="15" t="s">
+    <row r="48" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC48" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD48" s="12"/>
@@ -4476,89 +4271,11 @@
       <c r="AP48" s="12"/>
       <c r="AS48" s="12"/>
     </row>
-    <row r="49" spans="29:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AC49" s="25"/>
-    </row>
-    <row r="50" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="29:29" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="AC49" s="1"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0RkfImXWuOy3/0dtOcM5RPDzdsLNxf+FLxsQ3b/BT+6a/iMqNutYjaryBMNWLhzoI0A7ARtRAKsV3xRcidsjuw==" saltValue="FVR9Dgit0C8Yc0xjOjENaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rFsbKTcon+fBMQokExHj58MF/fJnK6qs/19JFsnMNtkStcom0SbdkP2aq6ggByjMt58mCbm6I/Fpu9BxIIQpdA==" saltValue="tjDt5WluSJpWzEyWFStjEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -4569,9 +4286,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:AS130"/>
+  <dimension ref="A1:AS70"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
@@ -4581,26 +4298,26 @@
       <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.703125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.703125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.703125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.703125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.703125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.703125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.703125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
       <c r="AD1" t="str">
         <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
@@ -4627,7 +4344,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
       <c r="AD2">
         <f>COUNTA(AD5:AD36)</f>
@@ -4654,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
       <c r="AD3">
         <f>COUNTA(AD39:AD79)</f>
@@ -4681,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -4696,8 +4413,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>111</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -4710,8 +4427,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -4722,8 +4439,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -4734,8 +4451,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -4746,8 +4463,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -4758,8 +4475,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -4770,8 +4487,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -4782,8 +4499,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -4794,8 +4511,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -4806,8 +4523,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -4818,8 +4535,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -4830,8 +4547,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -4842,8 +4559,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -4854,8 +4571,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -4866,8 +4583,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -4878,8 +4595,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -4890,8 +4607,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>112</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -4904,8 +4621,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -4916,8 +4633,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -4928,8 +4645,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -4940,8 +4657,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -4952,8 +4669,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -4964,8 +4681,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -4976,8 +4693,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -4988,8 +4705,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -5000,8 +4717,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -5012,8 +4729,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -5024,8 +4741,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -5036,8 +4753,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -5048,8 +4765,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -5060,8 +4777,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -5072,8 +4789,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -5084,10 +4801,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 7.7</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -5097,7 +4814,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -5108,8 +4825,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8"/>
@@ -5119,8 +4836,8 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AD40" s="10"/>
@@ -5130,8 +4847,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>62</v>
       </c>
       <c r="AD41" s="10"/>
@@ -5141,8 +4858,8 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>63</v>
       </c>
       <c r="AD42" s="10"/>
@@ -5152,8 +4869,8 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AD43" s="10"/>
@@ -5163,8 +4880,8 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>65</v>
       </c>
       <c r="AD44" s="10"/>
@@ -5174,8 +4891,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>66</v>
       </c>
       <c r="AD45" s="10"/>
@@ -5185,8 +4902,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>67</v>
       </c>
       <c r="AD46" s="10"/>
@@ -5196,8 +4913,8 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>68</v>
       </c>
       <c r="AD47" s="10"/>
@@ -5207,8 +4924,8 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC48" s="14" t="s">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC48" s="9" t="s">
         <v>69</v>
       </c>
       <c r="AD48" s="10"/>
@@ -5218,8 +4935,8 @@
       <c r="AP48" s="10"/>
       <c r="AS48" s="10"/>
     </row>
-    <row r="49" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC49" s="14" t="s">
+    <row r="49" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC49" s="9" t="s">
         <v>70</v>
       </c>
       <c r="AD49" s="10"/>
@@ -5229,8 +4946,8 @@
       <c r="AP49" s="10"/>
       <c r="AS49" s="10"/>
     </row>
-    <row r="50" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC50" s="14" t="s">
+    <row r="50" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC50" s="9" t="s">
         <v>71</v>
       </c>
       <c r="AD50" s="10"/>
@@ -5240,8 +4957,8 @@
       <c r="AP50" s="10"/>
       <c r="AS50" s="10"/>
     </row>
-    <row r="51" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC51" s="14" t="s">
+    <row r="51" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC51" s="9" t="s">
         <v>72</v>
       </c>
       <c r="AD51" s="10"/>
@@ -5251,8 +4968,8 @@
       <c r="AP51" s="10"/>
       <c r="AS51" s="10"/>
     </row>
-    <row r="52" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC52" s="14" t="s">
+    <row r="52" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC52" s="9" t="s">
         <v>73</v>
       </c>
       <c r="AD52" s="10"/>
@@ -5262,8 +4979,8 @@
       <c r="AP52" s="10"/>
       <c r="AS52" s="10"/>
     </row>
-    <row r="53" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC53" s="14" t="s">
+    <row r="53" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC53" s="9" t="s">
         <v>74</v>
       </c>
       <c r="AD53" s="10"/>
@@ -5273,8 +4990,8 @@
       <c r="AP53" s="10"/>
       <c r="AS53" s="10"/>
     </row>
-    <row r="54" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC54" s="14" t="s">
+    <row r="54" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC54" s="9" t="s">
         <v>75</v>
       </c>
       <c r="AD54" s="10"/>
@@ -5284,8 +5001,8 @@
       <c r="AP54" s="10"/>
       <c r="AS54" s="10"/>
     </row>
-    <row r="55" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC55" s="14" t="s">
+    <row r="55" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC55" s="9" t="s">
         <v>76</v>
       </c>
       <c r="AD55" s="10"/>
@@ -5295,8 +5012,8 @@
       <c r="AP55" s="10"/>
       <c r="AS55" s="10"/>
     </row>
-    <row r="56" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC56" s="14" t="s">
+    <row r="56" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC56" s="9" t="s">
         <v>77</v>
       </c>
       <c r="AD56" s="10"/>
@@ -5306,8 +5023,8 @@
       <c r="AP56" s="10"/>
       <c r="AS56" s="10"/>
     </row>
-    <row r="57" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC57" s="14" t="s">
+    <row r="57" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC57" s="9" t="s">
         <v>61</v>
       </c>
       <c r="AD57" s="10"/>
@@ -5317,8 +5034,8 @@
       <c r="AP57" s="10"/>
       <c r="AS57" s="10"/>
     </row>
-    <row r="58" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC58" s="14" t="s">
+    <row r="58" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC58" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD58" s="10"/>
@@ -5328,8 +5045,8 @@
       <c r="AP58" s="10"/>
       <c r="AS58" s="10"/>
     </row>
-    <row r="59" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC59" s="14" t="s">
+    <row r="59" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC59" s="9" t="s">
         <v>79</v>
       </c>
       <c r="AD59" s="10"/>
@@ -5339,8 +5056,8 @@
       <c r="AP59" s="10"/>
       <c r="AS59" s="10"/>
     </row>
-    <row r="60" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC60" s="14" t="s">
+    <row r="60" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC60" s="9" t="s">
         <v>80</v>
       </c>
       <c r="AD60" s="10"/>
@@ -5350,8 +5067,8 @@
       <c r="AP60" s="10"/>
       <c r="AS60" s="10"/>
     </row>
-    <row r="61" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC61" s="14" t="s">
+    <row r="61" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC61" s="9" t="s">
         <v>81</v>
       </c>
       <c r="AD61" s="10"/>
@@ -5361,8 +5078,8 @@
       <c r="AP61" s="10"/>
       <c r="AS61" s="10"/>
     </row>
-    <row r="62" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC62" s="14" t="s">
+    <row r="62" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC62" s="9" t="s">
         <v>82</v>
       </c>
       <c r="AD62" s="10"/>
@@ -5372,8 +5089,8 @@
       <c r="AP62" s="10"/>
       <c r="AS62" s="10"/>
     </row>
-    <row r="63" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC63" s="14" t="s">
+    <row r="63" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC63" s="9" t="s">
         <v>83</v>
       </c>
       <c r="AD63" s="10"/>
@@ -5383,30 +5100,30 @@
       <c r="AP63" s="10"/>
       <c r="AS63" s="10"/>
     </row>
-    <row r="64" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC64" s="16" t="s">
+    <row r="64" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC64" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AD64" s="26"/>
-      <c r="AG64" s="26"/>
-      <c r="AJ64" s="26"/>
-      <c r="AM64" s="26"/>
-      <c r="AP64" s="26"/>
-      <c r="AS64" s="26"/>
-    </row>
-    <row r="65" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC65" s="18" t="s">
+      <c r="AD64" s="20"/>
+      <c r="AG64" s="20"/>
+      <c r="AJ64" s="20"/>
+      <c r="AM64" s="20"/>
+      <c r="AP64" s="20"/>
+      <c r="AS64" s="20"/>
+    </row>
+    <row r="65" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC65" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD65" s="27"/>
-      <c r="AG65" s="27"/>
-      <c r="AJ65" s="27"/>
-      <c r="AM65" s="27"/>
-      <c r="AP65" s="27"/>
-      <c r="AS65" s="27"/>
-    </row>
-    <row r="66" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC66" s="14" t="s">
+      <c r="AD65" s="21"/>
+      <c r="AG65" s="21"/>
+      <c r="AJ65" s="21"/>
+      <c r="AM65" s="21"/>
+      <c r="AP65" s="21"/>
+      <c r="AS65" s="21"/>
+    </row>
+    <row r="66" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC66" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD66" s="10"/>
@@ -5416,8 +5133,8 @@
       <c r="AP66" s="10"/>
       <c r="AS66" s="10"/>
     </row>
-    <row r="67" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC67" s="14" t="s">
+    <row r="67" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC67" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD67" s="10"/>
@@ -5427,8 +5144,8 @@
       <c r="AP67" s="10"/>
       <c r="AS67" s="10"/>
     </row>
-    <row r="68" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC68" s="14" t="s">
+    <row r="68" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC68" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD68" s="10"/>
@@ -5438,8 +5155,8 @@
       <c r="AP68" s="10"/>
       <c r="AS68" s="10"/>
     </row>
-    <row r="69" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC69" s="15" t="s">
+    <row r="69" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC69" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD69" s="12"/>
@@ -5449,69 +5166,9 @@
       <c r="AP69" s="12"/>
       <c r="AS69" s="12"/>
     </row>
-    <row r="70" spans="29:45" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="29:45" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xJqLUoh4MlFOHZl220DivAyo0GHQX3bSbmR94hbSVsTsRMGf02BKGW1/3l9XM3LMMpMgFwCxpnYTKLzAf5bIRw==" saltValue="Y7KjlhJhx5NzAGtV3cwUoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fTmXKp1BtdDjqox0lnBFBP4w0+uozF4Ht93RP6PWfi226a3WcEfnWy12hVI80iP8ufXmQWhOhhIZrQEanAf8Yw==" saltValue="QH0ae+8WZyxk6+g4kEu62w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -5521,9 +5178,9 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS71"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
@@ -5533,26 +5190,26 @@
       <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.703125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.703125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.703125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.703125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.703125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.703125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.703125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
       <c r="AD1" t="str">
         <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
@@ -5579,7 +5236,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
       <c r="AD2">
         <f>COUNTA(AD5:AD36)</f>
@@ -5606,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
       <c r="AD3">
         <f>COUNTA(AD39:AD79)</f>
@@ -5633,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -5648,8 +5305,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>113</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -5662,8 +5319,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -5674,8 +5331,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -5686,8 +5343,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -5698,8 +5355,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -5710,8 +5367,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -5722,8 +5379,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -5734,8 +5391,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -5746,8 +5403,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -5758,8 +5415,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -5770,8 +5427,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -5782,8 +5439,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -5794,8 +5451,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -5806,8 +5463,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -5818,8 +5475,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -5830,8 +5487,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -5842,8 +5499,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>114</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -5856,8 +5513,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -5868,8 +5525,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -5880,8 +5537,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -5892,8 +5549,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -5904,8 +5561,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -5916,8 +5573,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -5928,8 +5585,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -5940,8 +5597,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -5952,8 +5609,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -5964,8 +5621,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -5976,8 +5633,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -5988,8 +5645,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -6000,8 +5657,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -6012,8 +5669,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -6024,8 +5681,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -6036,10 +5693,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 7.7</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -6049,7 +5706,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -6060,8 +5717,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>92</v>
       </c>
       <c r="AD39" s="8"/>
@@ -6071,8 +5728,8 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>32</v>
       </c>
       <c r="AD40" s="10"/>
@@ -6082,8 +5739,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AD41" s="10"/>
@@ -6093,8 +5750,8 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>40</v>
       </c>
       <c r="AD42" s="10"/>
@@ -6104,8 +5761,8 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>52</v>
       </c>
       <c r="AD43" s="10"/>
@@ -6115,8 +5772,8 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>93</v>
       </c>
       <c r="AD44" s="10"/>
@@ -6126,8 +5783,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>41</v>
       </c>
       <c r="AD45" s="10"/>
@@ -6137,8 +5794,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>53</v>
       </c>
       <c r="AD46" s="10"/>
@@ -6148,8 +5805,8 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>94</v>
       </c>
       <c r="AD47" s="10"/>
@@ -6159,8 +5816,8 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC48" s="14" t="s">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC48" s="9" t="s">
         <v>42</v>
       </c>
       <c r="AD48" s="10"/>
@@ -6170,8 +5827,8 @@
       <c r="AP48" s="10"/>
       <c r="AS48" s="10"/>
     </row>
-    <row r="49" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC49" s="14" t="s">
+    <row r="49" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC49" s="9" t="s">
         <v>54</v>
       </c>
       <c r="AD49" s="10"/>
@@ -6181,8 +5838,8 @@
       <c r="AP49" s="10"/>
       <c r="AS49" s="10"/>
     </row>
-    <row r="50" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC50" s="14" t="s">
+    <row r="50" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC50" s="9" t="s">
         <v>95</v>
       </c>
       <c r="AD50" s="10"/>
@@ -6192,8 +5849,8 @@
       <c r="AP50" s="10"/>
       <c r="AS50" s="10"/>
     </row>
-    <row r="51" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC51" s="14" t="s">
+    <row r="51" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC51" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AD51" s="10"/>
@@ -6203,8 +5860,8 @@
       <c r="AP51" s="10"/>
       <c r="AS51" s="10"/>
     </row>
-    <row r="52" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC52" s="14" t="s">
+    <row r="52" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC52" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AD52" s="10"/>
@@ -6214,8 +5871,8 @@
       <c r="AP52" s="10"/>
       <c r="AS52" s="10"/>
     </row>
-    <row r="53" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC53" s="14" t="s">
+    <row r="53" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC53" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AD53" s="10"/>
@@ -6225,8 +5882,8 @@
       <c r="AP53" s="10"/>
       <c r="AS53" s="10"/>
     </row>
-    <row r="54" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC54" s="14" t="s">
+    <row r="54" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC54" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AD54" s="10"/>
@@ -6236,8 +5893,8 @@
       <c r="AP54" s="10"/>
       <c r="AS54" s="10"/>
     </row>
-    <row r="55" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC55" s="14" t="s">
+    <row r="55" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC55" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AD55" s="10"/>
@@ -6247,8 +5904,8 @@
       <c r="AP55" s="10"/>
       <c r="AS55" s="10"/>
     </row>
-    <row r="56" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC56" s="14" t="s">
+    <row r="56" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC56" s="9" t="s">
         <v>97</v>
       </c>
       <c r="AD56" s="10"/>
@@ -6258,8 +5915,8 @@
       <c r="AP56" s="10"/>
       <c r="AS56" s="10"/>
     </row>
-    <row r="57" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC57" s="14" t="s">
+    <row r="57" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC57" s="9" t="s">
         <v>45</v>
       </c>
       <c r="AD57" s="10"/>
@@ -6269,8 +5926,8 @@
       <c r="AP57" s="10"/>
       <c r="AS57" s="10"/>
     </row>
-    <row r="58" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC58" s="14" t="s">
+    <row r="58" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC58" s="9" t="s">
         <v>57</v>
       </c>
       <c r="AD58" s="10"/>
@@ -6280,8 +5937,8 @@
       <c r="AP58" s="10"/>
       <c r="AS58" s="10"/>
     </row>
-    <row r="59" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC59" s="14" t="s">
+    <row r="59" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC59" s="9" t="s">
         <v>98</v>
       </c>
       <c r="AD59" s="10"/>
@@ -6291,8 +5948,8 @@
       <c r="AP59" s="10"/>
       <c r="AS59" s="10"/>
     </row>
-    <row r="60" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC60" s="14" t="s">
+    <row r="60" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC60" s="9" t="s">
         <v>99</v>
       </c>
       <c r="AD60" s="10"/>
@@ -6302,8 +5959,8 @@
       <c r="AP60" s="10"/>
       <c r="AS60" s="10"/>
     </row>
-    <row r="61" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC61" s="14" t="s">
+    <row r="61" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC61" s="9" t="s">
         <v>100</v>
       </c>
       <c r="AD61" s="10"/>
@@ -6313,8 +5970,8 @@
       <c r="AP61" s="10"/>
       <c r="AS61" s="10"/>
     </row>
-    <row r="62" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC62" s="14" t="s">
+    <row r="62" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC62" s="9" t="s">
         <v>101</v>
       </c>
       <c r="AD62" s="10"/>
@@ -6324,8 +5981,8 @@
       <c r="AP62" s="10"/>
       <c r="AS62" s="10"/>
     </row>
-    <row r="63" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC63" s="14" t="s">
+    <row r="63" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC63" s="9" t="s">
         <v>102</v>
       </c>
       <c r="AD63" s="10"/>
@@ -6335,8 +5992,8 @@
       <c r="AP63" s="10"/>
       <c r="AS63" s="10"/>
     </row>
-    <row r="64" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC64" s="14" t="s">
+    <row r="64" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC64" s="9" t="s">
         <v>103</v>
       </c>
       <c r="AD64" s="10"/>
@@ -6346,30 +6003,30 @@
       <c r="AP64" s="10"/>
       <c r="AS64" s="10"/>
     </row>
-    <row r="65" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC65" s="16" t="s">
+    <row r="65" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC65" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="AD65" s="26"/>
-      <c r="AG65" s="26"/>
-      <c r="AJ65" s="26"/>
-      <c r="AM65" s="26"/>
-      <c r="AP65" s="26"/>
-      <c r="AS65" s="26"/>
-    </row>
-    <row r="66" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC66" s="18" t="s">
+      <c r="AD65" s="20"/>
+      <c r="AG65" s="20"/>
+      <c r="AJ65" s="20"/>
+      <c r="AM65" s="20"/>
+      <c r="AP65" s="20"/>
+      <c r="AS65" s="20"/>
+    </row>
+    <row r="66" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC66" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD66" s="27"/>
-      <c r="AG66" s="27"/>
-      <c r="AJ66" s="27"/>
-      <c r="AM66" s="27"/>
-      <c r="AP66" s="27"/>
-      <c r="AS66" s="27"/>
-    </row>
-    <row r="67" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC67" s="14" t="s">
+      <c r="AD66" s="21"/>
+      <c r="AG66" s="21"/>
+      <c r="AJ66" s="21"/>
+      <c r="AM66" s="21"/>
+      <c r="AP66" s="21"/>
+      <c r="AS66" s="21"/>
+    </row>
+    <row r="67" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC67" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD67" s="10"/>
@@ -6379,8 +6036,8 @@
       <c r="AP67" s="10"/>
       <c r="AS67" s="10"/>
     </row>
-    <row r="68" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC68" s="14" t="s">
+    <row r="68" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC68" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD68" s="10"/>
@@ -6390,8 +6047,8 @@
       <c r="AP68" s="10"/>
       <c r="AS68" s="10"/>
     </row>
-    <row r="69" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC69" s="14" t="s">
+    <row r="69" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC69" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD69" s="10"/>
@@ -6401,8 +6058,8 @@
       <c r="AP69" s="10"/>
       <c r="AS69" s="10"/>
     </row>
-    <row r="70" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC70" s="15" t="s">
+    <row r="70" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC70" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD70" s="12"/>
@@ -6412,7 +6069,7 @@
       <c r="AP70" s="12"/>
       <c r="AS70" s="12"/>
     </row>
-    <row r="71" spans="29:45" x14ac:dyDescent="0.25">
+    <row r="71" spans="29:45" x14ac:dyDescent="0.5">
       <c r="AC71"/>
       <c r="AD71"/>
       <c r="AG71"/>
@@ -6421,64 +6078,8 @@
       <c r="AP71"/>
       <c r="AS71"/>
     </row>
-    <row r="72" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5YodLEDTGVm4nzjLpVoIKJ6sbcJ5q5khLgSk/35EKoXT8ZiWET790LATF7IqpHP7GvEAdkUHo6EtmUw1g3j66g==" saltValue="bC9l7PXW7h2O040UK1CaRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q1uxb3sV3j7tPxeHm3GPWD9xwmOs3oebXRGoWhhrztodu0grWFk1jJPJ9plEIgYoD1ncdCxxramNTs2WRg9WWg==" saltValue="KLT3BejcIHoPVBH3vLnoGA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -6488,9 +6089,9 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Hoja6"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS70"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
@@ -6500,107 +6101,107 @@
       <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.703125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="28" customWidth="1"/>
+    <col min="29" max="29" width="15.703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.703125" style="22" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="28" customWidth="1"/>
+    <col min="33" max="33" width="30.703125" style="22" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="28" customWidth="1"/>
+    <col min="36" max="36" width="30.703125" style="22" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="28" customWidth="1"/>
+    <col min="39" max="39" width="30.703125" style="22" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="28" customWidth="1"/>
+    <col min="42" max="42" width="30.703125" style="22" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="28" customWidth="1"/>
+    <col min="45" max="45" width="30.703125" style="22" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" s="17" t="str">
+      <c r="AD1" s="14" t="str">
         <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
         <v>OK</v>
       </c>
-      <c r="AG1" s="17" t="str">
+      <c r="AG1" s="14" t="str">
         <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
         <v>OK</v>
       </c>
-      <c r="AJ1" s="17" t="str">
+      <c r="AJ1" s="14" t="str">
         <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
         <v>OK</v>
       </c>
-      <c r="AM1" s="17" t="str">
+      <c r="AM1" s="14" t="str">
         <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
         <v>OK</v>
       </c>
-      <c r="AP1" s="17" t="str">
+      <c r="AP1" s="14" t="str">
         <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
         <v>OK</v>
       </c>
-      <c r="AS1" s="17" t="str">
+      <c r="AS1" s="14" t="str">
         <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
-      <c r="AD2" s="17">
+      <c r="AD2" s="14">
         <f>COUNTA(AD5:AD36)</f>
         <v>0</v>
       </c>
-      <c r="AG2" s="17">
+      <c r="AG2" s="14">
         <f>COUNTA(AG5:AG36)</f>
         <v>0</v>
       </c>
-      <c r="AJ2" s="17">
+      <c r="AJ2" s="14">
         <f>COUNTA(AJ5:AJ36)</f>
         <v>0</v>
       </c>
-      <c r="AM2" s="17">
+      <c r="AM2" s="14">
         <f>COUNTA(AM5:AM36)</f>
         <v>0</v>
       </c>
-      <c r="AP2" s="17">
+      <c r="AP2" s="14">
         <f>COUNTA(AP5:AP36)</f>
         <v>0</v>
       </c>
-      <c r="AS2" s="17">
+      <c r="AS2" s="14">
         <f>COUNTA(AS5:AS36)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3" s="17">
+      <c r="AD3" s="14">
         <f>COUNTA(AD39:AD79)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="17">
+      <c r="AG3" s="14">
         <f>COUNTA(AG39:AG79)</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="17">
+      <c r="AJ3" s="14">
         <f>COUNTA(AJ39:AJ79)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="17">
+      <c r="AM3" s="14">
         <f>COUNTA(AM39:AM79)</f>
         <v>0</v>
       </c>
-      <c r="AP3" s="17">
+      <c r="AP3" s="14">
         <f>COUNTA(AP39:AP79)</f>
         <v>0</v>
       </c>
-      <c r="AS3" s="17">
+      <c r="AS3" s="14">
         <f>COUNTA(AS39:AS79)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -6615,8 +6216,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>115</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -6629,8 +6230,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -6641,8 +6242,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -6653,8 +6254,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -6665,8 +6266,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -6677,8 +6278,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -6689,8 +6290,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -6701,8 +6302,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -6713,8 +6314,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -6725,8 +6326,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -6737,8 +6338,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -6749,8 +6350,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -6761,8 +6362,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -6773,8 +6374,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -6785,8 +6386,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -6797,8 +6398,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -6809,8 +6410,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>116</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -6823,8 +6424,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -6835,8 +6436,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -6847,8 +6448,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -6859,8 +6460,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -6871,8 +6472,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -6883,8 +6484,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -6895,8 +6496,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -6907,8 +6508,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -6919,8 +6520,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -6931,8 +6532,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -6943,8 +6544,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -6955,8 +6556,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -6967,8 +6568,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -6979,8 +6580,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -6991,8 +6592,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -7003,10 +6604,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 7.7</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -7016,7 +6617,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -7027,8 +6628,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8"/>
@@ -7038,8 +6639,8 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AD40" s="10"/>
@@ -7049,8 +6650,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>62</v>
       </c>
       <c r="AD41" s="10"/>
@@ -7060,8 +6661,8 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>63</v>
       </c>
       <c r="AD42" s="10"/>
@@ -7071,8 +6672,8 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AD43" s="10"/>
@@ -7082,8 +6683,8 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>65</v>
       </c>
       <c r="AD44" s="10"/>
@@ -7093,8 +6694,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>66</v>
       </c>
       <c r="AD45" s="10"/>
@@ -7104,8 +6705,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>67</v>
       </c>
       <c r="AD46" s="10"/>
@@ -7115,8 +6716,8 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>68</v>
       </c>
       <c r="AD47" s="10"/>
@@ -7126,8 +6727,8 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC48" s="14" t="s">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC48" s="9" t="s">
         <v>69</v>
       </c>
       <c r="AD48" s="10"/>
@@ -7137,8 +6738,8 @@
       <c r="AP48" s="10"/>
       <c r="AS48" s="10"/>
     </row>
-    <row r="49" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC49" s="14" t="s">
+    <row r="49" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC49" s="9" t="s">
         <v>70</v>
       </c>
       <c r="AD49" s="10"/>
@@ -7148,8 +6749,8 @@
       <c r="AP49" s="10"/>
       <c r="AS49" s="10"/>
     </row>
-    <row r="50" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC50" s="14" t="s">
+    <row r="50" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC50" s="9" t="s">
         <v>71</v>
       </c>
       <c r="AD50" s="10"/>
@@ -7159,8 +6760,8 @@
       <c r="AP50" s="10"/>
       <c r="AS50" s="10"/>
     </row>
-    <row r="51" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC51" s="14" t="s">
+    <row r="51" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC51" s="9" t="s">
         <v>72</v>
       </c>
       <c r="AD51" s="10"/>
@@ -7170,8 +6771,8 @@
       <c r="AP51" s="10"/>
       <c r="AS51" s="10"/>
     </row>
-    <row r="52" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC52" s="14" t="s">
+    <row r="52" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC52" s="9" t="s">
         <v>73</v>
       </c>
       <c r="AD52" s="10"/>
@@ -7181,8 +6782,8 @@
       <c r="AP52" s="10"/>
       <c r="AS52" s="10"/>
     </row>
-    <row r="53" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC53" s="14" t="s">
+    <row r="53" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC53" s="9" t="s">
         <v>74</v>
       </c>
       <c r="AD53" s="10"/>
@@ -7192,8 +6793,8 @@
       <c r="AP53" s="10"/>
       <c r="AS53" s="10"/>
     </row>
-    <row r="54" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC54" s="14" t="s">
+    <row r="54" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC54" s="9" t="s">
         <v>75</v>
       </c>
       <c r="AD54" s="10"/>
@@ -7203,8 +6804,8 @@
       <c r="AP54" s="10"/>
       <c r="AS54" s="10"/>
     </row>
-    <row r="55" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC55" s="14" t="s">
+    <row r="55" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC55" s="9" t="s">
         <v>76</v>
       </c>
       <c r="AD55" s="10"/>
@@ -7214,8 +6815,8 @@
       <c r="AP55" s="10"/>
       <c r="AS55" s="10"/>
     </row>
-    <row r="56" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC56" s="14" t="s">
+    <row r="56" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC56" s="9" t="s">
         <v>77</v>
       </c>
       <c r="AD56" s="10"/>
@@ -7225,8 +6826,8 @@
       <c r="AP56" s="10"/>
       <c r="AS56" s="10"/>
     </row>
-    <row r="57" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC57" s="14" t="s">
+    <row r="57" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC57" s="9" t="s">
         <v>61</v>
       </c>
       <c r="AD57" s="10"/>
@@ -7236,8 +6837,8 @@
       <c r="AP57" s="10"/>
       <c r="AS57" s="10"/>
     </row>
-    <row r="58" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC58" s="14" t="s">
+    <row r="58" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC58" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD58" s="10"/>
@@ -7247,8 +6848,8 @@
       <c r="AP58" s="10"/>
       <c r="AS58" s="10"/>
     </row>
-    <row r="59" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC59" s="14" t="s">
+    <row r="59" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC59" s="9" t="s">
         <v>79</v>
       </c>
       <c r="AD59" s="10"/>
@@ -7258,8 +6859,8 @@
       <c r="AP59" s="10"/>
       <c r="AS59" s="10"/>
     </row>
-    <row r="60" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC60" s="14" t="s">
+    <row r="60" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC60" s="9" t="s">
         <v>80</v>
       </c>
       <c r="AD60" s="10"/>
@@ -7269,8 +6870,8 @@
       <c r="AP60" s="10"/>
       <c r="AS60" s="10"/>
     </row>
-    <row r="61" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC61" s="14" t="s">
+    <row r="61" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC61" s="9" t="s">
         <v>81</v>
       </c>
       <c r="AD61" s="10"/>
@@ -7280,8 +6881,8 @@
       <c r="AP61" s="10"/>
       <c r="AS61" s="10"/>
     </row>
-    <row r="62" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC62" s="14" t="s">
+    <row r="62" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC62" s="9" t="s">
         <v>82</v>
       </c>
       <c r="AD62" s="10"/>
@@ -7291,8 +6892,8 @@
       <c r="AP62" s="10"/>
       <c r="AS62" s="10"/>
     </row>
-    <row r="63" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC63" s="14" t="s">
+    <row r="63" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC63" s="9" t="s">
         <v>83</v>
       </c>
       <c r="AD63" s="10"/>
@@ -7302,30 +6903,30 @@
       <c r="AP63" s="10"/>
       <c r="AS63" s="10"/>
     </row>
-    <row r="64" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC64" s="16" t="s">
+    <row r="64" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC64" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AD64" s="26"/>
-      <c r="AG64" s="26"/>
-      <c r="AJ64" s="26"/>
-      <c r="AM64" s="26"/>
-      <c r="AP64" s="26"/>
-      <c r="AS64" s="26"/>
-    </row>
-    <row r="65" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC65" s="18" t="s">
+      <c r="AD64" s="20"/>
+      <c r="AG64" s="20"/>
+      <c r="AJ64" s="20"/>
+      <c r="AM64" s="20"/>
+      <c r="AP64" s="20"/>
+      <c r="AS64" s="20"/>
+    </row>
+    <row r="65" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC65" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD65" s="27"/>
-      <c r="AG65" s="27"/>
-      <c r="AJ65" s="27"/>
-      <c r="AM65" s="27"/>
-      <c r="AP65" s="27"/>
-      <c r="AS65" s="27"/>
-    </row>
-    <row r="66" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC66" s="14" t="s">
+      <c r="AD65" s="21"/>
+      <c r="AG65" s="21"/>
+      <c r="AJ65" s="21"/>
+      <c r="AM65" s="21"/>
+      <c r="AP65" s="21"/>
+      <c r="AS65" s="21"/>
+    </row>
+    <row r="66" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC66" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD66" s="10"/>
@@ -7335,8 +6936,8 @@
       <c r="AP66" s="10"/>
       <c r="AS66" s="10"/>
     </row>
-    <row r="67" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC67" s="14" t="s">
+    <row r="67" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC67" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD67" s="10"/>
@@ -7346,8 +6947,8 @@
       <c r="AP67" s="10"/>
       <c r="AS67" s="10"/>
     </row>
-    <row r="68" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC68" s="14" t="s">
+    <row r="68" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC68" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD68" s="10"/>
@@ -7357,8 +6958,8 @@
       <c r="AP68" s="10"/>
       <c r="AS68" s="10"/>
     </row>
-    <row r="69" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC69" s="15" t="s">
+    <row r="69" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC69" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD69" s="12"/>
@@ -7368,73 +6969,16 @@
       <c r="AP69" s="12"/>
       <c r="AS69" s="12"/>
     </row>
-    <row r="70" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AD70" s="25"/>
-      <c r="AG70" s="25"/>
-      <c r="AJ70" s="25"/>
-      <c r="AM70" s="25"/>
-      <c r="AP70" s="25"/>
-      <c r="AS70" s="25"/>
-    </row>
-    <row r="71" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AD70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AS70" s="1"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tiUzsQQnfSREgVHytmJZXmczVeERsLAs/bvBxTkBIUP2yDbwSSuXjUeDLbYtT4/HH11BqxsNDRaYbv98L7BXAA==" saltValue="MaM0K1mCfgNCBDbxu9Je5g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xXpAjZoDBthIuKXXenaIFrFD+CMQdAFo7uoXVrKoFNzu1RcY5svj6/4zGQzhdc50boF00sIBbx73dOTbs27Brw==" saltValue="TOcBkZHg7kgPsyRTlMNNdA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -7444,9 +6988,9 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS49"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="4" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
@@ -7456,26 +7000,26 @@
       <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.703125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="17" customWidth="1"/>
+    <col min="29" max="29" width="15.703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.703125" style="14" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="17" customWidth="1"/>
+    <col min="33" max="33" width="30.703125" style="14" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="17" customWidth="1"/>
+    <col min="36" max="36" width="30.703125" style="14" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="17" customWidth="1"/>
+    <col min="39" max="39" width="30.703125" style="14" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="17" customWidth="1"/>
+    <col min="42" max="42" width="30.703125" style="14" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="17" customWidth="1"/>
+    <col min="45" max="45" width="30.703125" style="14" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC1"/>
       <c r="AD1" t="str">
         <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
@@ -7502,7 +7046,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC2"/>
       <c r="AD2">
         <f>COUNTA(AD5:AD36)</f>
@@ -7529,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
       <c r="AD3">
         <f>COUNTA(AD39:AD79)</f>
@@ -7556,7 +7100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -7571,8 +7115,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>117</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -7585,8 +7129,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -7597,8 +7141,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -7609,8 +7153,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -7621,8 +7165,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -7633,8 +7177,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -7645,8 +7189,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -7657,8 +7201,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -7669,8 +7213,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -7681,8 +7225,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -7693,8 +7237,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -7705,8 +7249,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -7717,8 +7261,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -7729,8 +7273,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -7741,8 +7285,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -7753,8 +7297,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -7765,8 +7309,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>118</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -7779,8 +7323,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -7791,8 +7335,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -7803,8 +7347,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="9" t="s">
         <v>18</v>
       </c>
@@ -7815,8 +7359,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="9" t="s">
         <v>18</v>
       </c>
@@ -7827,8 +7371,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -7839,8 +7383,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -7851,8 +7395,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -7863,8 +7407,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -7875,8 +7419,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -7887,8 +7431,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -7899,8 +7443,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -7911,8 +7455,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -7923,8 +7467,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -7935,8 +7479,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -7947,8 +7491,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -7959,10 +7503,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" s="24" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 7.7</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -7972,7 +7516,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -7983,8 +7527,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8"/>
@@ -7994,8 +7538,8 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AD40" s="10"/>
@@ -8005,8 +7549,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>85</v>
       </c>
       <c r="AD41" s="10"/>
@@ -8016,8 +7560,8 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>86</v>
       </c>
       <c r="AD42" s="10"/>
@@ -8027,8 +7571,8 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>87</v>
       </c>
       <c r="AD43" s="10"/>
@@ -8038,8 +7582,8 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AD44" s="10"/>
@@ -8049,8 +7593,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>89</v>
       </c>
       <c r="AD45" s="10"/>
@@ -8060,8 +7604,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>90</v>
       </c>
       <c r="AD46" s="10"/>
@@ -8071,121 +7615,43 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC47" s="15" t="s">
+    <row r="47" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC47" s="11" t="s">
         <v>91</v>
       </c>
       <c r="AD47" s="12"/>
-      <c r="AE47" s="20"/>
-      <c r="AF47" s="20"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="17"/>
       <c r="AG47" s="12"/>
-      <c r="AH47" s="20"/>
-      <c r="AI47" s="20"/>
+      <c r="AH47" s="17"/>
+      <c r="AI47" s="17"/>
       <c r="AJ47" s="12"/>
-      <c r="AK47" s="20"/>
-      <c r="AL47" s="20"/>
+      <c r="AK47" s="17"/>
+      <c r="AL47" s="17"/>
       <c r="AM47" s="12"/>
-      <c r="AN47" s="20"/>
-      <c r="AO47" s="20"/>
+      <c r="AN47" s="17"/>
+      <c r="AO47" s="17"/>
       <c r="AP47" s="12"/>
-      <c r="AQ47" s="20"/>
-      <c r="AR47" s="20"/>
+      <c r="AQ47" s="17"/>
+      <c r="AR47" s="17"/>
       <c r="AS47" s="12"/>
     </row>
-    <row r="48" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC48" s="21" t="s">
+    <row r="48" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC48" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AD48" s="22"/>
-      <c r="AG48" s="22"/>
-      <c r="AJ48" s="22"/>
-      <c r="AM48" s="22"/>
-      <c r="AP48" s="22"/>
-      <c r="AS48" s="22"/>
-    </row>
-    <row r="49" spans="29:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AC49" s="25"/>
-    </row>
-    <row r="50" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="AD48" s="19"/>
+      <c r="AG48" s="19"/>
+      <c r="AJ48" s="19"/>
+      <c r="AM48" s="19"/>
+      <c r="AP48" s="19"/>
+      <c r="AS48" s="19"/>
+    </row>
+    <row r="49" spans="29:29" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="AC49" s="1"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iaHf1bxXwLmuobPdki4BVMN6CNzRLuDfmERMh5IfIpNdp5dU+eIZMTVrhe/67s2IomZhnl7RQHgXeQUjEUhu2A==" saltValue="uMq1p6mvooFMGPMjQDHaCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BHw6+TLw4IvEnsl/DlmonKbCry9j3YpQcu/M+eaWDbjymaLD2D/8jJOxQCc6odAayKNEtuNA66HePN3+gr/ifA==" saltValue="hZUGRf9ePGHSfX6zGbHi8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -8195,9 +7661,9 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Hoja8"/>
-  <dimension ref="A1:AS139"/>
+  <dimension ref="A1:AS48"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="4" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
@@ -8207,26 +7673,26 @@
       <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="28" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.703125" customWidth="1"/>
+    <col min="2" max="28" width="11.41015625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="15.703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.703125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.703125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.703125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.703125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.703125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.703125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC1"/>
       <c r="AD1" t="str">
         <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
@@ -8253,7 +7719,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC2"/>
       <c r="AD2">
         <f>COUNTA(AD5:AD36)</f>
@@ -8280,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
       <c r="AD3">
         <f>COUNTA(AD39:AD79)</f>
@@ -8307,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -8322,8 +7788,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>120</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -8336,8 +7802,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -8348,8 +7814,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -8360,8 +7826,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -8372,8 +7838,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -8384,8 +7850,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -8396,8 +7862,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -8408,8 +7874,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -8420,8 +7886,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -8432,8 +7898,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -8444,8 +7910,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -8456,8 +7922,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -8468,8 +7934,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -8480,8 +7946,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -8492,8 +7958,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -8504,8 +7970,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -8516,8 +7982,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>119</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -8530,8 +7996,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -8542,8 +8008,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -8554,8 +8020,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -8566,8 +8032,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -8578,8 +8044,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -8590,8 +8056,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -8602,8 +8068,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -8614,8 +8080,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -8626,8 +8092,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -8638,8 +8104,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -8650,8 +8116,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -8662,8 +8128,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -8674,8 +8140,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -8686,8 +8152,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -8698,8 +8164,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -8710,10 +8176,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 7.7</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -8723,18 +8189,18 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AD38" s="29"/>
-      <c r="AG38" s="29"/>
-      <c r="AJ38" s="29"/>
-      <c r="AM38" s="29"/>
-      <c r="AP38" s="29"/>
-      <c r="AS38" s="29"/>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD38" s="23"/>
+      <c r="AG38" s="23"/>
+      <c r="AJ38" s="23"/>
+      <c r="AM38" s="23"/>
+      <c r="AP38" s="23"/>
+      <c r="AS38" s="23"/>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
@@ -8745,7 +8211,7 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
@@ -8756,7 +8222,7 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC41" s="9" t="s">
         <v>34</v>
       </c>
@@ -8767,30 +8233,30 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="18" t="s">
+    <row r="42" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC42" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AP42" s="10"/>
+      <c r="AS42" s="10"/>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD42" s="27"/>
-      <c r="AG42" s="27"/>
-      <c r="AJ42" s="27"/>
-      <c r="AM42" s="27"/>
-      <c r="AP42" s="27"/>
-      <c r="AS42" s="27"/>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD43" s="10"/>
-      <c r="AG43" s="10"/>
-      <c r="AJ43" s="10"/>
-      <c r="AM43" s="10"/>
-      <c r="AP43" s="10"/>
-      <c r="AS43" s="10"/>
-    </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+      <c r="AD43" s="21"/>
+      <c r="AG43" s="21"/>
+      <c r="AJ43" s="21"/>
+      <c r="AM43" s="21"/>
+      <c r="AP43" s="21"/>
+      <c r="AS43" s="21"/>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD44" s="10"/>
@@ -8800,9 +8266,9 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
-        <v>37</v>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AD45" s="10"/>
       <c r="AG45" s="10"/>
@@ -8811,112 +8277,31 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC46" s="15" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AM46" s="10"/>
+      <c r="AP46" s="10"/>
+      <c r="AS46" s="10"/>
+    </row>
+    <row r="47" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC47" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AD46" s="12"/>
-      <c r="AG46" s="12"/>
-      <c r="AJ46" s="12"/>
-      <c r="AM46" s="12"/>
-      <c r="AP46" s="12"/>
-      <c r="AS46" s="12"/>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="AD47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AM47" s="12"/>
+      <c r="AP47" s="12"/>
+      <c r="AS47" s="12"/>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SBInZMtAG7qpBdvlv8+0UDxANKH374fzDcxkGhN3bReV7zZdcihAwtwsYkoYGUqolwPb1ihaGTZo6U3DaqC17Q==" saltValue="oU2DfLYyYSGvXUvNnqrEJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UNNs13oxSNFvKyDYTc/+spqIOAS6TIjoCsCvcwYKFP4ptgzsuEUz8QI3kYow7Hfanwj2Rn3qxn+V8WfD6usIPQ==" saltValue="ivlCcEHhFK/Z/H6KxPcrfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>

--- a/FastTest PlugIn - Formula.xlsx
+++ b/FastTest PlugIn - Formula.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milag\Desktop\FastTest PlugIn\z. V7.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\FTP\z. V8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731D7D46-11AB-4E8C-B4BA-9AC676741BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4734179-7E05-4920-A1A9-28C7F7BBD236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="12266" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,184 +23,6 @@
     <sheet name="Formulas EN" sheetId="5" r:id="rId8"/>
     <sheet name="Formulas CL" sheetId="6" r:id="rId9"/>
   </sheets>
-  <definedNames>
-    <definedName name="Dato_01" localSheetId="8">'Formulas CL'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="0">'Formulas DG'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="4">'Formulas EM'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="7">'Formulas EN'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="2">'Formulas O2'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="1">'Formulas OM'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="6">'Formulas PP'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="5">'Formulas RC'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="3">'Formulas VF'!$Y$5</definedName>
-    <definedName name="Dato_02" localSheetId="8">'Formulas CL'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="0">'Formulas DG'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="4">'Formulas EM'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="7">'Formulas EN'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="2">'Formulas O2'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="1">'Formulas OM'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="6">'Formulas PP'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="5">'Formulas RC'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="3">'Formulas VF'!$Y$7</definedName>
-    <definedName name="Dato_03" localSheetId="8">'Formulas CL'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="0">'Formulas DG'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="4">'Formulas EM'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="7">'Formulas EN'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="2">'Formulas O2'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="1">'Formulas OM'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="6">'Formulas PP'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="5">'Formulas RC'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="3">'Formulas VF'!$Y$9</definedName>
-    <definedName name="Dato_04" localSheetId="8">'Formulas CL'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="0">'Formulas DG'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="4">'Formulas EM'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="7">'Formulas EN'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="2">'Formulas O2'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="1">'Formulas OM'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="6">'Formulas PP'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="5">'Formulas RC'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="3">'Formulas VF'!$Y$11</definedName>
-    <definedName name="Dato_05" localSheetId="8">'Formulas CL'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="0">'Formulas DG'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="4">'Formulas EM'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="7">'Formulas EN'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="2">'Formulas O2'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="1">'Formulas OM'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="6">'Formulas PP'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="5">'Formulas RC'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="3">'Formulas VF'!$Y$13</definedName>
-    <definedName name="Dato_06" localSheetId="8">'Formulas CL'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="0">'Formulas DG'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="4">'Formulas EM'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="7">'Formulas EN'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="2">'Formulas O2'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="1">'Formulas OM'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="6">'Formulas PP'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="5">'Formulas RC'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="3">'Formulas VF'!$Y$15</definedName>
-    <definedName name="Dato_07" localSheetId="8">'Formulas CL'!$Y$17</definedName>
-    <definedName name="Dato_07" localSheetId="1">'Formulas OM'!$Y$17</definedName>
-    <definedName name="Dato_08" localSheetId="8">'Formulas CL'!$Y$19</definedName>
-    <definedName name="Dato_10" localSheetId="8">'Formulas CL'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="0">'Formulas DG'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="4">'Formulas EM'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="7">'Formulas EN'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="2">'Formulas O2'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="1">'Formulas OM'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="6">'Formulas PP'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="5">'Formulas RC'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="3">'Formulas VF'!$Y$23</definedName>
-    <definedName name="Dato_11" localSheetId="8">'Formulas CL'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="0">'Formulas DG'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="4">'Formulas EM'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="7">'Formulas EN'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="2">'Formulas O2'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="1">'Formulas OM'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="6">'Formulas PP'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="5">'Formulas RC'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="3">'Formulas VF'!$Y$25</definedName>
-    <definedName name="Dato_12" localSheetId="8">'Formulas CL'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="0">'Formulas DG'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="4">'Formulas EM'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="7">'Formulas EN'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="2">'Formulas O2'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="1">'Formulas OM'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="6">'Formulas PP'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="5">'Formulas RC'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="3">'Formulas VF'!$Y$27</definedName>
-    <definedName name="Dato_13" localSheetId="8">'Formulas CL'!$Y$29</definedName>
-    <definedName name="Dato_14" localSheetId="8">'Formulas CL'!$Y$31</definedName>
-    <definedName name="Dato_15" localSheetId="8">'Formulas CL'!$Y$33</definedName>
-    <definedName name="Dato_16" localSheetId="8">'Formulas CL'!$Y$35</definedName>
-    <definedName name="Dato_17" localSheetId="8">'Formulas CL'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="0">'Formulas DG'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="4">'Formulas EM'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="7">'Formulas EN'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="2">'Formulas O2'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="1">'Formulas OM'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="6">'Formulas PP'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="5">'Formulas RC'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="3">'Formulas VF'!$AA$5</definedName>
-    <definedName name="Dato_18" localSheetId="8">'Formulas CL'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="0">'Formulas DG'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="4">'Formulas EM'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="7">'Formulas EN'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="2">'Formulas O2'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="1">'Formulas OM'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="6">'Formulas PP'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="5">'Formulas RC'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="3">'Formulas VF'!$AA$7</definedName>
-    <definedName name="Dato_19" localSheetId="8">'Formulas CL'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="0">'Formulas DG'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="4">'Formulas EM'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="7">'Formulas EN'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="2">'Formulas O2'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="1">'Formulas OM'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="6">'Formulas PP'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="5">'Formulas RC'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="3">'Formulas VF'!$AA$9</definedName>
-    <definedName name="Dato_20" localSheetId="8">'Formulas CL'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="0">'Formulas DG'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="4">'Formulas EM'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="7">'Formulas EN'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="2">'Formulas O2'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="1">'Formulas OM'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="6">'Formulas PP'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="5">'Formulas RC'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="3">'Formulas VF'!$AA$11</definedName>
-    <definedName name="Dato_21" localSheetId="8">'Formulas CL'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="0">'Formulas DG'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="4">'Formulas EM'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="7">'Formulas EN'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="2">'Formulas O2'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="1">'Formulas OM'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="6">'Formulas PP'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="5">'Formulas RC'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="3">'Formulas VF'!$AA$13</definedName>
-    <definedName name="Dato_22" localSheetId="8">'Formulas CL'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="0">'Formulas DG'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="4">'Formulas EM'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="7">'Formulas EN'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="2">'Formulas O2'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="1">'Formulas OM'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="6">'Formulas PP'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="5">'Formulas RC'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="3">'Formulas VF'!$AA$15</definedName>
-    <definedName name="Dato_23" localSheetId="8">'Formulas CL'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="0">'Formulas DG'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="4">'Formulas EM'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="7">'Formulas EN'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="2">'Formulas O2'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="1">'Formulas OM'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="6">'Formulas PP'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="5">'Formulas RC'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="3">'Formulas VF'!$AA$17</definedName>
-    <definedName name="Dato_24" localSheetId="8">'Formulas CL'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="0">'Formulas DG'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="4">'Formulas EM'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="7">'Formulas EN'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="2">'Formulas O2'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="1">'Formulas OM'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="6">'Formulas PP'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="5">'Formulas RC'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="3">'Formulas VF'!$AA$19</definedName>
-    <definedName name="Dato_25" localSheetId="8">'Formulas CL'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="0">'Formulas DG'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="4">'Formulas EM'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="7">'Formulas EN'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="2">'Formulas O2'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="1">'Formulas OM'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="6">'Formulas PP'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="5">'Formulas RC'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="3">'Formulas VF'!$AA$21</definedName>
-    <definedName name="Dato_26" localSheetId="8">'Formulas CL'!$AA$23</definedName>
-    <definedName name="Dato_27" localSheetId="8">'Formulas CL'!$AA$25</definedName>
-    <definedName name="Dato_28" localSheetId="8">'Formulas CL'!$AA$27</definedName>
-    <definedName name="Dato_29" localSheetId="8">'Formulas CL'!$AA$29</definedName>
-    <definedName name="Dato_30" localSheetId="8">'Formulas CL'!$AA$31</definedName>
-    <definedName name="Dato_31" localSheetId="8">'Formulas CL'!$AA$33</definedName>
-    <definedName name="Dato_32" localSheetId="8">'Formulas CL'!$AA$35</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -222,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="167">
   <si>
     <t>DATO_01</t>
   </si>
@@ -722,10 +544,7 @@
     <t>SubCat_12</t>
   </si>
   <si>
-    <t>ANCHO IMAGEN OM</t>
-  </si>
-  <si>
-    <t>V - 7.7</t>
+    <t>V - 8.0</t>
   </si>
 </sst>
 </file>
@@ -1304,109 +1123,59 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS48" sqref="AS48"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="29" ySplit="4" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="AD4" sqref="AD4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.703125" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="25.703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.703125" style="14" customWidth="1"/>
+    <col min="29" max="29" width="25.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="14" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.703125" style="14" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="14" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.703125" style="14" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="14" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.703125" style="14" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="14" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.703125" style="14" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="14" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.703125" style="14" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="14" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
+      <c r="AD1"/>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
     </row>
     <row r="2" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC2"/>
-      <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
     </row>
     <row r="3" spans="1:45" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
     </row>
     <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
@@ -1813,7 +1582,7 @@
     </row>
     <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -1948,7 +1717,7 @@
       <c r="AC49" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D0MxQGW/CQ04pELlDXpDaZ8nvcW+2hYugC3VG8ZGPol6I/agbqHwOLQW5g3iDcoztHYpUZ5TqX1P4nDtdgx/lw==" saltValue="hksXG2Jm+t6OsuMkWAM03g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1J2cDk63Umr0HBBFB3mcMiIbbNXbeKf3TFPTwBtI0JJCmNhayq79KC+79ROGlTowjTQQa80exvwi3r59I3J3MQ==" saltValue="SG3J2yvpvwZWCrpyUTvlOw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -1965,111 +1734,57 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="AG14" sqref="AG14"/>
-      <selection pane="topRight" activeCell="AG14" sqref="AG14"/>
-      <selection pane="bottomLeft" activeCell="AG14" sqref="AG14"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection activeCell="AD5" sqref="AD5"/>
+      <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.703125" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.703125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.703125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.703125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.703125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.703125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
+      <c r="AD1"/>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
-      <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
     </row>
     <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
     </row>
     <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
@@ -2477,7 +2192,7 @@
     <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="16" t="str">
         <f>'Formulas DG'!A37</f>
-        <v>V - 7.7</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -2775,7 +2490,7 @@
     </row>
     <row r="64" spans="29:45" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XuoGYfeIXLcvT3LgSL8+DXYQZ3T6vKW+M9epkikHtyIpt7HjxdTYFx9ZUouhWIFdv2fKbbAV3da9dXmUG6NPJQ==" saltValue="aHNJL4NCQNEojw9bF+T1PA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="INetjJZjJf24HnHpzIv8W9mpR8VfVSUNKIA4QuN6LoXwwSQkiaHacSKHOrupKeTUxMyeCUnd6D3XmCzQcjWcGg==" saltValue="71kHFML3FQZfN/Hl6ioaQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -2792,111 +2507,57 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="AG14" sqref="AG14"/>
-      <selection pane="topRight" activeCell="AG14" sqref="AG14"/>
-      <selection pane="bottomLeft" activeCell="AG14" sqref="AG14"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection activeCell="AD5" sqref="AD5"/>
+      <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.703125" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.703125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.703125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.703125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.703125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.703125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
+      <c r="AD1"/>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
-      <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
     </row>
     <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
     </row>
     <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
@@ -3304,7 +2965,7 @@
     <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.7</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -3602,7 +3263,7 @@
     </row>
     <row r="64" spans="29:45" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sIxvDV7giMTM0O4LJxC+KCNi0/CCZDtQ/Yh8WL72fd8MiTkPMpauSj+EVki5HC8pGeSTgKt4n5dG+hhTkFRvOQ==" saltValue="iuMvsB3eU8AOrlqUhkNaoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+mQxza9Wp3g6U8YISAvfazW79LwEi3cBb7iDssIwVBag/ECl6GDuNW7emvJMfBAziSf7q86+TzhCI8s3TDRT9Q==" saltValue="hRIpu6dqldriMXfqAJgKCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -3618,111 +3279,57 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="AG14" sqref="AG14"/>
-      <selection pane="topRight" activeCell="AG14" sqref="AG14"/>
-      <selection pane="bottomLeft" activeCell="AG14" sqref="AG14"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection activeCell="AD5" sqref="AD5"/>
+      <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.703125" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.703125" style="14" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="14" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.703125" style="14" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="14" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.703125" style="14" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="14" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.703125" style="14" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="14" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.703125" style="14" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="14" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.703125" style="14" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="14" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
+      <c r="AD1"/>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
-      <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
     </row>
     <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
     </row>
     <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
@@ -4130,7 +3737,7 @@
     <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.7</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -4275,7 +3882,7 @@
       <c r="AC49" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rFsbKTcon+fBMQokExHj58MF/fJnK6qs/19JFsnMNtkStcom0SbdkP2aq6ggByjMt58mCbm6I/Fpu9BxIIQpdA==" saltValue="tjDt5WluSJpWzEyWFStjEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kl5FXaR4QE2lOSA8h8WkH4h4zLH1QH3/abfnprYXtfC170ag7NtuwYYykb/o6tWKCPHzLnPzVJVxVoxkUzw3Mw==" saltValue="f7sdpnT901ndWLN8uAP93A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -4292,111 +3899,57 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="AG14" sqref="AG14"/>
-      <selection pane="topRight" activeCell="AG14" sqref="AG14"/>
-      <selection pane="bottomLeft" activeCell="AG14" sqref="AG14"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection activeCell="AD5" sqref="AD5"/>
+      <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.703125" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.703125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.703125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.703125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.703125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.703125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
+      <c r="AD1"/>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
-      <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
     </row>
     <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
     </row>
     <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
@@ -4804,7 +4357,7 @@
     <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.7</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -5168,7 +4721,7 @@
     </row>
     <row r="70" spans="29:45" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fTmXKp1BtdDjqox0lnBFBP4w0+uozF4Ht93RP6PWfi226a3WcEfnWy12hVI80iP8ufXmQWhOhhIZrQEanAf8Yw==" saltValue="QH0ae+8WZyxk6+g4kEu62w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tAZ6UCeLSW4DUrSeHGdEb12uNpcFxUP2PjcIQkUyGWwJZ4VbPHk3i5qr9WYbnpkXO0uXiB8ee8uLj7wKxdqKFw==" saltValue="g5kttvYrX/uTE9ctJRRVrw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -5184,111 +4737,57 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="AG14" sqref="AG14"/>
-      <selection pane="topRight" activeCell="AG14" sqref="AG14"/>
-      <selection pane="bottomLeft" activeCell="AG14" sqref="AG14"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection activeCell="AD5" sqref="AD5"/>
+      <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.703125" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.703125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.703125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.703125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.703125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.703125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
+      <c r="AD1"/>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
-      <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
     </row>
     <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
     </row>
     <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
@@ -5696,7 +5195,7 @@
     <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.7</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -6079,7 +5578,7 @@
       <c r="AS71"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q1uxb3sV3j7tPxeHm3GPWD9xwmOs3oebXRGoWhhrztodu0grWFk1jJPJ9plEIgYoD1ncdCxxramNTs2WRg9WWg==" saltValue="KLT3BejcIHoPVBH3vLnoGA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mw+DdyguqclqTK4ArGaRpvtQkIcL5yk7lagquQQ3+nHmxBy5qbhjQS2G3cTXMtCWIa9ralfBpCigUJN6Op+F0g==" saltValue="NjRi0jRoEIPtsgMmXEtXBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -6095,111 +5594,57 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="AG14" sqref="AG14"/>
-      <selection pane="topRight" activeCell="AG14" sqref="AG14"/>
-      <selection pane="bottomLeft" activeCell="AG14" sqref="AG14"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection activeCell="AD5" sqref="AD5"/>
+      <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.703125" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.703125" style="22" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="22" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.703125" style="22" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="22" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.703125" style="22" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="22" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.703125" style="22" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="22" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.703125" style="22" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="22" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.703125" style="22" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="22" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" s="14" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" s="14" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" s="14" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" s="14" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" s="14" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" s="14" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
+      <c r="AD1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AS1" s="14"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
-      <c r="AD2" s="14">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="14">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="14">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2" s="14">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2" s="14">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2" s="14">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
+      <c r="AD2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AS2" s="14"/>
     </row>
     <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3" s="14">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="14">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="14">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3" s="14">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3" s="14">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3" s="14">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
+      <c r="AD3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AS3" s="14"/>
     </row>
     <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
@@ -6607,7 +6052,7 @@
     <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.7</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -6978,7 +6423,7 @@
       <c r="AS70" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xXpAjZoDBthIuKXXenaIFrFD+CMQdAFo7uoXVrKoFNzu1RcY5svj6/4zGQzhdc50boF00sIBbx73dOTbs27Brw==" saltValue="TOcBkZHg7kgPsyRTlMNNdA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y76TPVc7MNSb8nK/+cTeoe9+D7sWbrSXC4t9wjWj7hS8K4L6Qir3iWAOzgmhxqp1beTdCiBhvQyVDyIiKlgQbw==" saltValue="hXPhg094EVz5P35Wwhq+CA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -6994,111 +6439,57 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="4" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="AG14" sqref="AG14"/>
-      <selection pane="topRight" activeCell="AG14" sqref="AG14"/>
-      <selection pane="bottomLeft" activeCell="AG14" sqref="AG14"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection activeCell="AD5" sqref="AD5"/>
+      <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.703125" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.703125" style="14" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="14" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.703125" style="14" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="14" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.703125" style="14" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="14" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.703125" style="14" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="14" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.703125" style="14" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="14" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.703125" style="14" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="14" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
+      <c r="AD1"/>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
     </row>
     <row r="2" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC2"/>
-      <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
     </row>
     <row r="3" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
     </row>
     <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
@@ -7506,7 +6897,7 @@
     <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.7</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -7651,7 +7042,7 @@
       <c r="AC49" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BHw6+TLw4IvEnsl/DlmonKbCry9j3YpQcu/M+eaWDbjymaLD2D/8jJOxQCc6odAayKNEtuNA66HePN3+gr/ifA==" saltValue="hZUGRf9ePGHSfX6zGbHi8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mGHJbEDqrvHZcdgX6Qajq7Q3PE6ZwqFjhWYfdKs/SKInvoil8mjXopB9WXs96Gam//4mRmUi3AxrugiicgbzUw==" saltValue="tiFaoNTJ4E+hnks3i0vW2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -7663,115 +7054,61 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Hoja8"/>
-  <dimension ref="A1:AS48"/>
+  <dimension ref="A1:AS47"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="4" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="AG14" sqref="AG14"/>
-      <selection pane="topRight" activeCell="AG14" sqref="AG14"/>
-      <selection pane="bottomLeft" activeCell="AG14" sqref="AG14"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection activeCell="AD5" sqref="AD5"/>
+      <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.703125" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="11.41015625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.703125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.703125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.703125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.703125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.703125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
+      <c r="AD1"/>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
     </row>
     <row r="2" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC2"/>
-      <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
     </row>
     <row r="3" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
     </row>
     <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
@@ -8179,7 +7516,7 @@
     <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.7</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -8222,7 +7559,7 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC41" s="9" t="s">
         <v>34</v>
       </c>
@@ -8233,27 +7570,27 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="AC42" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD42" s="10"/>
-      <c r="AG42" s="10"/>
-      <c r="AJ42" s="10"/>
-      <c r="AM42" s="10"/>
-      <c r="AP42" s="10"/>
-      <c r="AS42" s="10"/>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD42" s="21"/>
+      <c r="AG42" s="21"/>
+      <c r="AJ42" s="21"/>
+      <c r="AM42" s="21"/>
+      <c r="AP42" s="21"/>
+      <c r="AS42" s="21"/>
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.5">
-      <c r="AC43" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD43" s="21"/>
-      <c r="AG43" s="21"/>
-      <c r="AJ43" s="21"/>
-      <c r="AM43" s="21"/>
-      <c r="AP43" s="21"/>
-      <c r="AS43" s="21"/>
+      <c r="AC43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AP43" s="10"/>
+      <c r="AS43" s="10"/>
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC44" s="9" t="s">
@@ -8268,7 +7605,7 @@
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC45" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD45" s="10"/>
       <c r="AG45" s="10"/>
@@ -8277,31 +7614,20 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
-      <c r="AC46" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD46" s="10"/>
-      <c r="AG46" s="10"/>
-      <c r="AJ46" s="10"/>
-      <c r="AM46" s="10"/>
-      <c r="AP46" s="10"/>
-      <c r="AS46" s="10"/>
-    </row>
-    <row r="47" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="AC47" s="11" t="s">
+    <row r="46" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC46" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AD47" s="12"/>
-      <c r="AG47" s="12"/>
-      <c r="AJ47" s="12"/>
-      <c r="AM47" s="12"/>
-      <c r="AP47" s="12"/>
-      <c r="AS47" s="12"/>
-    </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.5"/>
+      <c r="AD46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AM46" s="12"/>
+      <c r="AP46" s="12"/>
+      <c r="AS46" s="12"/>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UNNs13oxSNFvKyDYTc/+spqIOAS6TIjoCsCvcwYKFP4ptgzsuEUz8QI3kYow7Hfanwj2Rn3qxn+V8WfD6usIPQ==" saltValue="ivlCcEHhFK/Z/H6KxPcrfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6YlU1uZ98Mtx2qqrzEd6gxDm96w0IbLAIQ22JJZbuQfwBy+Gs6/FoGfO+GEG09PVlDeah46Si2dc3avBljOhGg==" saltValue="3lzqRZJ6Z3J8SLBCc/YB8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
